--- a/data/interim/process_node_eval.xlsx
+++ b/data/interim/process_node_eval.xlsx
@@ -486,12 +486,12 @@
     <row r="1">
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>timeint</t>
+          <t>timeint_label</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>900-4500</t>
+          <t>6:00-7:00 am</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
@@ -500,7 +500,7 @@
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>4500-8100</t>
+          <t>7:00-8:00 am</t>
         </is>
       </c>
       <c r="M1" s="1" t="n"/>
@@ -509,7 +509,7 @@
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>8100-11700</t>
+          <t>8:00-9:00 am</t>
         </is>
       </c>
       <c r="R1" s="1" t="n"/>
@@ -518,7 +518,7 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>11700-12600</t>
+          <t>9:00-9:15 am</t>
         </is>
       </c>
       <c r="W1" s="1" t="n"/>

--- a/data/interim/process_node_eval.xlsx
+++ b/data/interim/process_node_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="127">
   <si>
     <t>timeint_label</t>
   </si>
@@ -379,22 +379,22 @@
     <t>WB County Road</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>E</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -878,49 +878,49 @@
         <v>61</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>598.13</v>
       </c>
       <c r="H4">
-        <v>2.85</v>
+        <v>1183.01</v>
       </c>
       <c r="I4">
-        <v>43.13</v>
+        <v>151.62</v>
       </c>
       <c r="J4" t="s">
         <v>121</v>
       </c>
       <c r="K4">
-        <v>0.11</v>
+        <v>1111.37</v>
       </c>
       <c r="L4">
-        <v>11.85</v>
+        <v>1188.11</v>
       </c>
       <c r="M4">
-        <v>40.83</v>
+        <v>208.25</v>
       </c>
       <c r="N4" t="s">
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.04</v>
+        <v>1106.47</v>
       </c>
       <c r="P4">
-        <v>2.23</v>
+        <v>1184.25</v>
       </c>
       <c r="Q4">
-        <v>75.09</v>
+        <v>205.87</v>
       </c>
       <c r="R4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S4">
-        <v>0.08</v>
+        <v>1108.66</v>
       </c>
       <c r="T4">
-        <v>2.2</v>
+        <v>1178.18</v>
       </c>
       <c r="U4">
-        <v>42.77</v>
+        <v>208.11</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
@@ -936,28 +936,28 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="I5">
-        <v>0</v>
+        <v>151.62</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M5">
-        <v>40.83</v>
+        <v>208.25</v>
       </c>
       <c r="N5" t="s">
         <v>121</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>205.87</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>208.11</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J6" t="s">
         <v>122</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R6" t="s">
         <v>122</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="V6" t="s">
         <v>122</v>
@@ -1034,7 +1034,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J7" t="s">
         <v>122</v>
@@ -1046,13 +1046,13 @@
         <v>122</v>
       </c>
       <c r="Q7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R7" t="s">
         <v>122</v>
       </c>
       <c r="U7">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="V7" t="s">
         <v>122</v>
@@ -1074,43 +1074,43 @@
         <v>103</v>
       </c>
       <c r="G8">
-        <v>89.73999999999999</v>
+        <v>90.05</v>
       </c>
       <c r="H8">
-        <v>443.95</v>
+        <v>446.68</v>
       </c>
       <c r="I8">
-        <v>25.13</v>
+        <v>25.21</v>
       </c>
       <c r="J8" t="s">
         <v>123</v>
       </c>
       <c r="K8">
-        <v>102.8</v>
+        <v>103.02</v>
       </c>
       <c r="L8">
-        <v>471.19</v>
+        <v>471.23</v>
       </c>
       <c r="M8">
-        <v>27.1</v>
+        <v>27.17</v>
       </c>
       <c r="N8" t="s">
         <v>123</v>
       </c>
       <c r="O8">
-        <v>90.48999999999999</v>
+        <v>93.16</v>
       </c>
       <c r="P8">
-        <v>444.53</v>
+        <v>449.65</v>
       </c>
       <c r="Q8">
-        <v>24.84</v>
+        <v>25.8</v>
       </c>
       <c r="R8" t="s">
         <v>123</v>
       </c>
       <c r="S8">
-        <v>86.05</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="T8">
         <v>360.83</v>
@@ -1136,49 +1136,49 @@
         <v>62</v>
       </c>
       <c r="G9">
-        <v>89.73999999999999</v>
+        <v>90.05</v>
       </c>
       <c r="H9">
-        <v>443.95</v>
+        <v>446.68</v>
       </c>
       <c r="I9">
-        <v>27.23</v>
+        <v>27.26</v>
       </c>
       <c r="J9" t="s">
         <v>123</v>
       </c>
       <c r="K9">
-        <v>102.8</v>
+        <v>103.02</v>
       </c>
       <c r="L9">
-        <v>471.19</v>
+        <v>471.23</v>
       </c>
       <c r="M9">
-        <v>28.35</v>
+        <v>28.39</v>
       </c>
       <c r="N9" t="s">
         <v>123</v>
       </c>
       <c r="O9">
-        <v>90.48999999999999</v>
+        <v>93.16</v>
       </c>
       <c r="P9">
-        <v>444.53</v>
+        <v>449.65</v>
       </c>
       <c r="Q9">
-        <v>27.08</v>
+        <v>27.25</v>
       </c>
       <c r="R9" t="s">
         <v>123</v>
       </c>
       <c r="S9">
-        <v>86.05</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="T9">
         <v>360.83</v>
       </c>
       <c r="U9">
-        <v>26.52</v>
+        <v>26.54</v>
       </c>
       <c r="V9" t="s">
         <v>123</v>
@@ -1194,25 +1194,25 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="I10">
-        <v>26.06671052631579</v>
+        <v>26.12440789473684</v>
       </c>
       <c r="J10" t="s">
         <v>123</v>
       </c>
       <c r="M10">
-        <v>27.65672268907563</v>
+        <v>27.71336134453782</v>
       </c>
       <c r="N10" t="s">
         <v>123</v>
       </c>
       <c r="Q10">
-        <v>25.82642201834862</v>
+        <v>26.43853211009174</v>
       </c>
       <c r="R10" t="s">
         <v>123</v>
       </c>
       <c r="U10">
-        <v>26.30315217391304</v>
+        <v>26.31173913043478</v>
       </c>
       <c r="V10" t="s">
         <v>123</v>
@@ -1234,52 +1234,52 @@
         <v>61</v>
       </c>
       <c r="G11">
-        <v>105.54</v>
+        <v>108.56</v>
       </c>
       <c r="H11">
-        <v>315.89</v>
+        <v>319.33</v>
       </c>
       <c r="I11">
-        <v>36.99</v>
+        <v>38.18</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K11">
-        <v>109.15</v>
+        <v>116.58</v>
       </c>
       <c r="L11">
-        <v>330.95</v>
+        <v>317.58</v>
       </c>
       <c r="M11">
-        <v>35.63</v>
+        <v>37.16</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O11">
-        <v>113.92</v>
+        <v>98.83</v>
       </c>
       <c r="P11">
-        <v>320.57</v>
+        <v>313.27</v>
       </c>
       <c r="Q11">
-        <v>35.83</v>
+        <v>34.66</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S11">
-        <v>114.81</v>
+        <v>101.47</v>
       </c>
       <c r="T11">
-        <v>309.01</v>
+        <v>281.83</v>
       </c>
       <c r="U11">
-        <v>38.68</v>
+        <v>35.41</v>
       </c>
       <c r="V11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1296,52 +1296,52 @@
         <v>103</v>
       </c>
       <c r="G12">
-        <v>147.62</v>
+        <v>146.32</v>
       </c>
       <c r="H12">
-        <v>324.45</v>
+        <v>326.44</v>
       </c>
       <c r="I12">
-        <v>35.41</v>
+        <v>35.59</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K12">
-        <v>154.74</v>
+        <v>151.6</v>
       </c>
       <c r="L12">
-        <v>332.89</v>
+        <v>322.85</v>
       </c>
       <c r="M12">
-        <v>35.31</v>
+        <v>36.19</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O12">
-        <v>157.25</v>
+        <v>146.34</v>
       </c>
       <c r="P12">
-        <v>325.13</v>
+        <v>323.97</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>35.89</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S12">
-        <v>157.13</v>
+        <v>144.73</v>
       </c>
       <c r="T12">
-        <v>310.95</v>
+        <v>292.72</v>
       </c>
       <c r="U12">
-        <v>36.45</v>
+        <v>36.26</v>
       </c>
       <c r="V12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1358,49 +1358,49 @@
         <v>62</v>
       </c>
       <c r="G13">
-        <v>147.62</v>
+        <v>146.32</v>
       </c>
       <c r="H13">
-        <v>324.45</v>
+        <v>326.44</v>
       </c>
       <c r="I13">
-        <v>35.26</v>
+        <v>39.01</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K13">
-        <v>154.74</v>
+        <v>151.6</v>
       </c>
       <c r="L13">
-        <v>332.89</v>
+        <v>322.85</v>
       </c>
       <c r="M13">
-        <v>37.14</v>
+        <v>32.38</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O13">
-        <v>157.25</v>
+        <v>146.34</v>
       </c>
       <c r="P13">
-        <v>325.13</v>
+        <v>323.97</v>
       </c>
       <c r="Q13">
-        <v>38.46</v>
+        <v>37.61</v>
       </c>
       <c r="R13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S13">
-        <v>157.13</v>
+        <v>144.73</v>
       </c>
       <c r="T13">
-        <v>310.95</v>
+        <v>292.72</v>
       </c>
       <c r="U13">
-        <v>34.35</v>
+        <v>34.17</v>
       </c>
       <c r="V13" t="s">
         <v>123</v>
@@ -1416,28 +1416,28 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="I14">
-        <v>35.85286356821589</v>
+        <v>36.49718608169441</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>35.41857979502196</v>
+        <v>36.44371888726207</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q14">
-        <v>35.98931785195936</v>
+        <v>35.54473926380368</v>
       </c>
       <c r="R14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U14">
-        <v>37.00170588235294</v>
+        <v>35.99524691358025</v>
       </c>
       <c r="V14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1450,28 +1450,28 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15">
-        <v>28.18109536082474</v>
+        <v>46.56198233020431</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>29.40284825870647</v>
+        <v>54.71615015974441</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q15">
-        <v>29.22568614576494</v>
+        <v>55.7457918810749</v>
       </c>
       <c r="R15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U15">
-        <v>30.2485597826087</v>
+        <v>58.29676674364897</v>
       </c>
       <c r="V15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1492,52 +1492,52 @@
         <v>104</v>
       </c>
       <c r="G16">
-        <v>59.07</v>
+        <v>736.15</v>
       </c>
       <c r="H16">
-        <v>308.01</v>
+        <v>1180.17</v>
       </c>
       <c r="I16">
-        <v>14.96</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16">
-        <v>65.2</v>
+        <v>1108.36</v>
       </c>
       <c r="L16">
-        <v>312.3</v>
+        <v>1185.27</v>
       </c>
       <c r="M16">
-        <v>25.39</v>
+        <v>79.64</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O16">
-        <v>50.62</v>
+        <v>1103.08</v>
       </c>
       <c r="P16">
-        <v>255.92</v>
+        <v>1179.63</v>
       </c>
       <c r="Q16">
-        <v>25.08</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S16">
-        <v>51.3</v>
+        <v>1105.63</v>
       </c>
       <c r="T16">
-        <v>201.84</v>
+        <v>1175.34</v>
       </c>
       <c r="U16">
-        <v>0.86</v>
+        <v>77.28</v>
       </c>
       <c r="V16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1554,52 +1554,52 @@
         <v>105</v>
       </c>
       <c r="G17">
-        <v>59.07</v>
+        <v>736.15</v>
       </c>
       <c r="H17">
-        <v>308.01</v>
+        <v>1180.17</v>
       </c>
       <c r="I17">
-        <v>29.05</v>
+        <v>117.72</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K17">
-        <v>65.2</v>
+        <v>1108.36</v>
       </c>
       <c r="L17">
-        <v>312.3</v>
+        <v>1185.27</v>
       </c>
       <c r="M17">
-        <v>29.05</v>
+        <v>172.68</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O17">
-        <v>50.62</v>
+        <v>1103.08</v>
       </c>
       <c r="P17">
-        <v>255.92</v>
+        <v>1179.63</v>
       </c>
       <c r="Q17">
-        <v>28.29</v>
+        <v>171.01</v>
       </c>
       <c r="R17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S17">
-        <v>51.3</v>
+        <v>1105.63</v>
       </c>
       <c r="T17">
-        <v>201.84</v>
+        <v>1175.34</v>
       </c>
       <c r="U17">
-        <v>28.86</v>
+        <v>169.61</v>
       </c>
       <c r="V17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1616,52 +1616,52 @@
         <v>106</v>
       </c>
       <c r="G18">
-        <v>59.07</v>
+        <v>736.15</v>
       </c>
       <c r="H18">
-        <v>308.01</v>
+        <v>1180.17</v>
       </c>
       <c r="I18">
-        <v>26.99</v>
+        <v>95.23</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K18">
-        <v>65.2</v>
+        <v>1108.36</v>
       </c>
       <c r="L18">
-        <v>312.3</v>
+        <v>1185.27</v>
       </c>
       <c r="M18">
-        <v>28.36</v>
+        <v>139.34</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18">
-        <v>50.62</v>
+        <v>1103.08</v>
       </c>
       <c r="P18">
-        <v>255.92</v>
+        <v>1179.63</v>
       </c>
       <c r="Q18">
-        <v>27.25</v>
+        <v>134.5</v>
       </c>
       <c r="R18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S18">
-        <v>51.3</v>
+        <v>1105.63</v>
       </c>
       <c r="T18">
-        <v>201.84</v>
+        <v>1175.34</v>
       </c>
       <c r="U18">
-        <v>24.53</v>
+        <v>131.06</v>
       </c>
       <c r="V18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1674,28 +1674,28 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19">
-        <v>28.31536345776032</v>
+        <v>110.7658734939759</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>28.81887700534759</v>
+        <v>161.8083086053413</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q19">
-        <v>27.93834437086092</v>
+        <v>160.0846726190476</v>
       </c>
       <c r="R19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U19">
-        <v>27.45464912280702</v>
+        <v>158.3638211382114</v>
       </c>
       <c r="V19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1714,49 +1714,49 @@
         <v>61</v>
       </c>
       <c r="G20">
-        <v>18.08</v>
+        <v>18.67</v>
       </c>
       <c r="H20">
-        <v>172.55</v>
+        <v>171.56</v>
       </c>
       <c r="I20">
-        <v>25.66</v>
+        <v>25.71</v>
       </c>
       <c r="J20" t="s">
         <v>123</v>
       </c>
       <c r="K20">
-        <v>11.99</v>
+        <v>14.07</v>
       </c>
       <c r="L20">
-        <v>142.91</v>
+        <v>168.25</v>
       </c>
       <c r="M20">
-        <v>24.14</v>
+        <v>24.86</v>
       </c>
       <c r="N20" t="s">
         <v>123</v>
       </c>
       <c r="O20">
-        <v>9.880000000000001</v>
+        <v>10.36</v>
       </c>
       <c r="P20">
-        <v>109.86</v>
+        <v>126.08</v>
       </c>
       <c r="Q20">
-        <v>25.39</v>
+        <v>26.44</v>
       </c>
       <c r="R20" t="s">
         <v>123</v>
       </c>
       <c r="S20">
-        <v>8.07</v>
+        <v>7.99</v>
       </c>
       <c r="T20">
-        <v>74.33</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="U20">
-        <v>25.26</v>
+        <v>21.82</v>
       </c>
       <c r="V20" t="s">
         <v>123</v>
@@ -1772,25 +1772,25 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="I21">
-        <v>25.66</v>
+        <v>25.71</v>
       </c>
       <c r="J21" t="s">
         <v>123</v>
       </c>
       <c r="M21">
-        <v>24.14</v>
+        <v>24.86</v>
       </c>
       <c r="N21" t="s">
         <v>123</v>
       </c>
       <c r="Q21">
-        <v>25.39</v>
+        <v>26.44</v>
       </c>
       <c r="R21" t="s">
         <v>123</v>
       </c>
       <c r="U21">
-        <v>25.26</v>
+        <v>21.82</v>
       </c>
       <c r="V21" t="s">
         <v>123</v>
@@ -1812,52 +1812,52 @@
         <v>104</v>
       </c>
       <c r="G22">
-        <v>12.67</v>
+        <v>11.78</v>
       </c>
       <c r="H22">
-        <v>100.97</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="I22">
-        <v>47.41</v>
+        <v>44.94</v>
       </c>
       <c r="J22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K22">
-        <v>14.55</v>
+        <v>15.27</v>
       </c>
       <c r="L22">
-        <v>109.85</v>
+        <v>120.76</v>
       </c>
       <c r="M22">
-        <v>45.56</v>
+        <v>46.14</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O22">
-        <v>13.87</v>
+        <v>13.84</v>
       </c>
       <c r="P22">
-        <v>108.3</v>
+        <v>101.42</v>
       </c>
       <c r="Q22">
-        <v>47.92</v>
+        <v>47.2</v>
       </c>
       <c r="R22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S22">
-        <v>13.35</v>
+        <v>14.47</v>
       </c>
       <c r="T22">
-        <v>78.52</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="U22">
-        <v>44.81</v>
+        <v>47.63</v>
       </c>
       <c r="V22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1874,52 +1874,52 @@
         <v>106</v>
       </c>
       <c r="G23">
-        <v>12.67</v>
+        <v>11.78</v>
       </c>
       <c r="H23">
-        <v>100.97</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="I23">
-        <v>41.1</v>
+        <v>39.97</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K23">
-        <v>14.55</v>
+        <v>15.27</v>
       </c>
       <c r="L23">
-        <v>109.85</v>
+        <v>120.76</v>
       </c>
       <c r="M23">
-        <v>43.65</v>
+        <v>44.11</v>
       </c>
       <c r="N23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O23">
-        <v>13.87</v>
+        <v>13.84</v>
       </c>
       <c r="P23">
-        <v>108.3</v>
+        <v>101.42</v>
       </c>
       <c r="Q23">
-        <v>41.19</v>
+        <v>43.26</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S23">
-        <v>13.35</v>
+        <v>14.47</v>
       </c>
       <c r="T23">
-        <v>78.52</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="U23">
-        <v>44.82</v>
+        <v>49.44</v>
       </c>
       <c r="V23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -1932,28 +1932,28 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="I24">
-        <v>44.81839285714285</v>
+        <v>42.86163636363636</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M24">
-        <v>44.78492753623189</v>
+        <v>45.31623188405797</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q24">
-        <v>45.50140625</v>
+        <v>45.7840625</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U24">
-        <v>44.81400000000001</v>
+        <v>48.354</v>
       </c>
       <c r="V24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -1972,49 +1972,49 @@
         <v>104</v>
       </c>
       <c r="G25">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="H25">
-        <v>43.27</v>
+        <v>50.4</v>
       </c>
       <c r="I25">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J25" t="s">
         <v>122</v>
       </c>
       <c r="K25">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="L25">
-        <v>40.34</v>
+        <v>46.86</v>
       </c>
       <c r="M25">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="N25" t="s">
         <v>122</v>
       </c>
       <c r="O25">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="P25">
-        <v>44.61</v>
+        <v>53.12</v>
       </c>
       <c r="Q25">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="s">
         <v>122</v>
       </c>
       <c r="S25">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="T25">
-        <v>15.38</v>
+        <v>18.84</v>
       </c>
       <c r="U25">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="V25" t="s">
         <v>122</v>
@@ -2034,49 +2034,49 @@
         <v>105</v>
       </c>
       <c r="G26">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="H26">
-        <v>43.27</v>
+        <v>50.4</v>
       </c>
       <c r="I26">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="J26" t="s">
         <v>122</v>
       </c>
       <c r="K26">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="L26">
-        <v>40.34</v>
+        <v>46.86</v>
       </c>
       <c r="M26">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="N26" t="s">
         <v>122</v>
       </c>
       <c r="O26">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="P26">
-        <v>44.61</v>
+        <v>53.12</v>
       </c>
       <c r="Q26">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="R26" t="s">
         <v>122</v>
       </c>
       <c r="S26">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="T26">
-        <v>15.38</v>
+        <v>18.84</v>
       </c>
       <c r="U26">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="V26" t="s">
         <v>122</v>
@@ -2096,49 +2096,49 @@
         <v>106</v>
       </c>
       <c r="G27">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="H27">
-        <v>43.27</v>
+        <v>50.4</v>
       </c>
       <c r="I27">
+        <v>0.22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27">
+        <v>0.49</v>
+      </c>
+      <c r="L27">
+        <v>46.86</v>
+      </c>
+      <c r="M27">
+        <v>0.23</v>
+      </c>
+      <c r="N27" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27">
+        <v>0.67</v>
+      </c>
+      <c r="P27">
+        <v>53.12</v>
+      </c>
+      <c r="Q27">
+        <v>0.23</v>
+      </c>
+      <c r="R27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27">
+        <v>0.31</v>
+      </c>
+      <c r="T27">
+        <v>18.84</v>
+      </c>
+      <c r="U27">
         <v>0.21</v>
-      </c>
-      <c r="J27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27">
-        <v>0.48</v>
-      </c>
-      <c r="L27">
-        <v>40.34</v>
-      </c>
-      <c r="M27">
-        <v>0.21</v>
-      </c>
-      <c r="N27" t="s">
-        <v>122</v>
-      </c>
-      <c r="O27">
-        <v>0.59</v>
-      </c>
-      <c r="P27">
-        <v>44.61</v>
-      </c>
-      <c r="Q27">
-        <v>0.22</v>
-      </c>
-      <c r="R27" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27">
-        <v>0.33</v>
-      </c>
-      <c r="T27">
-        <v>15.38</v>
-      </c>
-      <c r="U27">
-        <v>0.2</v>
       </c>
       <c r="V27" t="s">
         <v>122</v>
@@ -2154,25 +2154,25 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="I28">
-        <v>0.6053142857142858</v>
+        <v>0.6527999999999999</v>
       </c>
       <c r="J28" t="s">
         <v>122</v>
       </c>
       <c r="M28">
-        <v>0.4986015831134564</v>
+        <v>0.5296842105263159</v>
       </c>
       <c r="N28" t="s">
         <v>122</v>
       </c>
       <c r="Q28">
-        <v>0.5986127167630059</v>
+        <v>0.6514450867052023</v>
       </c>
       <c r="R28" t="s">
         <v>122</v>
       </c>
       <c r="U28">
-        <v>0.4407407407407407</v>
+        <v>0.4291358024691359</v>
       </c>
       <c r="V28" t="s">
         <v>122</v>
@@ -2188,28 +2188,28 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29">
-        <v>19.55346487006738</v>
+        <v>76.12899672131149</v>
       </c>
       <c r="J29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M29">
-        <v>19.67569090909091</v>
+        <v>108.6449262347659</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q29">
-        <v>18.82009635974304</v>
+        <v>111.7516252518469</v>
       </c>
       <c r="R29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="U29">
-        <v>18.71151785714285</v>
+        <v>111.6671587743733</v>
       </c>
       <c r="V29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2230,49 +2230,49 @@
         <v>107</v>
       </c>
       <c r="G30">
-        <v>4.49</v>
+        <v>48.21</v>
       </c>
       <c r="H30">
-        <v>219.35</v>
+        <v>773.67</v>
       </c>
       <c r="I30">
-        <v>14.02</v>
+        <v>16.25</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30">
-        <v>3.24</v>
+        <v>34.6</v>
       </c>
       <c r="L30">
-        <v>171.13</v>
+        <v>519.0599999999999</v>
       </c>
       <c r="M30">
-        <v>10.73</v>
+        <v>12.35</v>
       </c>
       <c r="N30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O30">
-        <v>2.77</v>
+        <v>10</v>
       </c>
       <c r="P30">
-        <v>191.59</v>
+        <v>268.97</v>
       </c>
       <c r="Q30">
-        <v>11.34</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S30">
-        <v>1.11</v>
+        <v>24.23</v>
       </c>
       <c r="T30">
-        <v>57.39</v>
+        <v>206.69</v>
       </c>
       <c r="U30">
-        <v>8.26</v>
+        <v>8.33</v>
       </c>
       <c r="V30" t="s">
         <v>122</v>
@@ -2292,52 +2292,52 @@
         <v>107</v>
       </c>
       <c r="G31">
-        <v>15.85</v>
+        <v>32.93</v>
       </c>
       <c r="H31">
-        <v>86.43000000000001</v>
+        <v>178</v>
       </c>
       <c r="I31">
-        <v>52.05</v>
+        <v>49.37</v>
       </c>
       <c r="J31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K31">
-        <v>12.51</v>
+        <v>24.45</v>
       </c>
       <c r="L31">
-        <v>81.84999999999999</v>
+        <v>128.24</v>
       </c>
       <c r="M31">
-        <v>53.38</v>
+        <v>47.49</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O31">
-        <v>9.710000000000001</v>
+        <v>17.55</v>
       </c>
       <c r="P31">
-        <v>69.28</v>
+        <v>114.04</v>
       </c>
       <c r="Q31">
-        <v>57.66</v>
+        <v>49.85</v>
       </c>
       <c r="R31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S31">
-        <v>8.02</v>
+        <v>16.81</v>
       </c>
       <c r="T31">
-        <v>50.58</v>
+        <v>75.89</v>
       </c>
       <c r="U31">
-        <v>62.64</v>
+        <v>51.72</v>
       </c>
       <c r="V31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2354,28 +2354,52 @@
         <v>63</v>
       </c>
       <c r="G32">
-        <v>15.85</v>
+        <v>32.93</v>
       </c>
       <c r="H32">
-        <v>86.43000000000001</v>
+        <v>178</v>
+      </c>
+      <c r="I32">
+        <v>65.86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
       </c>
       <c r="K32">
-        <v>12.51</v>
+        <v>24.45</v>
       </c>
       <c r="L32">
-        <v>81.84999999999999</v>
+        <v>128.24</v>
+      </c>
+      <c r="M32">
+        <v>71.14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
       </c>
       <c r="O32">
-        <v>9.710000000000001</v>
+        <v>17.55</v>
       </c>
       <c r="P32">
-        <v>69.28</v>
+        <v>114.04</v>
+      </c>
+      <c r="Q32">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="R32" t="s">
+        <v>125</v>
       </c>
       <c r="S32">
-        <v>8.02</v>
+        <v>16.81</v>
       </c>
       <c r="T32">
-        <v>50.58</v>
+        <v>75.89</v>
+      </c>
+      <c r="U32">
+        <v>59.47</v>
+      </c>
+      <c r="V32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2392,49 +2416,49 @@
         <v>63</v>
       </c>
       <c r="G33">
-        <v>215.93</v>
+        <v>230.72</v>
       </c>
       <c r="H33">
-        <v>928.38</v>
+        <v>1135.95</v>
       </c>
       <c r="I33">
-        <v>92.84999999999999</v>
+        <v>99.61</v>
       </c>
       <c r="J33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K33">
-        <v>196.23</v>
+        <v>192.83</v>
       </c>
       <c r="L33">
-        <v>821.14</v>
+        <v>771.35</v>
       </c>
       <c r="M33">
-        <v>86.67</v>
+        <v>92.97</v>
       </c>
       <c r="N33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O33">
-        <v>209.41</v>
+        <v>168.8</v>
       </c>
       <c r="P33">
-        <v>950.35</v>
+        <v>650.49</v>
       </c>
       <c r="Q33">
-        <v>91.2</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="R33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S33">
-        <v>178.26</v>
+        <v>166.61</v>
       </c>
       <c r="T33">
-        <v>478.28</v>
+        <v>420.87</v>
       </c>
       <c r="U33">
-        <v>80.31999999999999</v>
+        <v>76.31</v>
       </c>
       <c r="V33" t="s">
         <v>125</v>
@@ -2450,28 +2474,28 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="I34">
-        <v>64.63700571428572</v>
+        <v>60.19252417794971</v>
       </c>
       <c r="J34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M34">
-        <v>60.60549815498155</v>
+        <v>56.34510971786834</v>
       </c>
       <c r="N34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q34">
-        <v>64.42014134275618</v>
+        <v>52.6933869239014</v>
       </c>
       <c r="R34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U34">
-        <v>55.0745728643216</v>
+        <v>44.99245454545455</v>
       </c>
       <c r="V34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2490,52 +2514,52 @@
         <v>63</v>
       </c>
       <c r="G35">
-        <v>212.44</v>
+        <v>217.33</v>
       </c>
       <c r="H35">
-        <v>358.32</v>
+        <v>372.33</v>
       </c>
       <c r="I35">
-        <v>247.12</v>
+        <v>248.73</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K35">
-        <v>244.72</v>
+        <v>249.66</v>
       </c>
       <c r="L35">
-        <v>398.12</v>
+        <v>408</v>
       </c>
       <c r="M35">
-        <v>270.28</v>
+        <v>289.58</v>
       </c>
       <c r="N35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O35">
-        <v>235.46</v>
+        <v>210.53</v>
       </c>
       <c r="P35">
-        <v>384.77</v>
+        <v>371.16</v>
       </c>
       <c r="Q35">
-        <v>288.4</v>
+        <v>246.94</v>
       </c>
       <c r="R35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S35">
-        <v>254.79</v>
+        <v>222.8</v>
       </c>
       <c r="T35">
-        <v>365.67</v>
+        <v>348.76</v>
       </c>
       <c r="U35">
-        <v>260.28</v>
+        <v>216.81</v>
       </c>
       <c r="V35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2552,52 +2576,52 @@
         <v>65</v>
       </c>
       <c r="G36">
-        <v>115.07</v>
+        <v>115.01</v>
       </c>
       <c r="H36">
-        <v>354.25</v>
+        <v>367.47</v>
       </c>
       <c r="I36">
-        <v>39.3</v>
+        <v>41.22</v>
       </c>
       <c r="J36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K36">
-        <v>160.41</v>
+        <v>147.61</v>
       </c>
       <c r="L36">
-        <v>392.17</v>
+        <v>396.82</v>
       </c>
       <c r="M36">
-        <v>46.27</v>
+        <v>48.41</v>
       </c>
       <c r="N36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O36">
-        <v>138.4</v>
+        <v>104.81</v>
       </c>
       <c r="P36">
-        <v>379.78</v>
+        <v>365.51</v>
       </c>
       <c r="Q36">
-        <v>45.36</v>
+        <v>44.58</v>
       </c>
       <c r="R36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S36">
-        <v>140.12</v>
+        <v>82.34</v>
       </c>
       <c r="T36">
-        <v>303.71</v>
+        <v>234.7</v>
       </c>
       <c r="U36">
-        <v>51.08</v>
+        <v>36.92</v>
       </c>
       <c r="V36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2610,28 +2634,28 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="I37">
-        <v>186.819896373057</v>
+        <v>186.9185106382979</v>
       </c>
       <c r="J37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M37">
-        <v>207.0513709677419</v>
+        <v>223.2822709163347</v>
       </c>
       <c r="N37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q37">
-        <v>216.9854028436019</v>
+        <v>188.0370892018779</v>
       </c>
       <c r="R37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U37">
-        <v>207.1498412698412</v>
+        <v>169.7618461538462</v>
       </c>
       <c r="V37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2644,25 +2668,25 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="I38">
-        <v>86.71687265917603</v>
+        <v>79.68882978723404</v>
       </c>
       <c r="J38" t="s">
         <v>125</v>
       </c>
       <c r="M38">
-        <v>94.83601319509896</v>
+        <v>91.03155629139073</v>
       </c>
       <c r="N38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q38">
-        <v>94.7892641509434</v>
+        <v>77.84889179755672</v>
       </c>
       <c r="R38" t="s">
         <v>125</v>
       </c>
       <c r="U38">
-        <v>91.64229007633585</v>
+        <v>73.44863157894737</v>
       </c>
       <c r="V38" t="s">
         <v>125</v>
@@ -2686,49 +2710,49 @@
         <v>69</v>
       </c>
       <c r="G39">
-        <v>1118.09</v>
+        <v>76</v>
       </c>
       <c r="H39">
-        <v>1689.13</v>
+        <v>571.45</v>
       </c>
       <c r="I39">
-        <v>65.02</v>
+        <v>23.3</v>
       </c>
       <c r="J39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K39">
-        <v>963.86</v>
+        <v>67.23</v>
       </c>
       <c r="L39">
-        <v>1691.55</v>
+        <v>519.3</v>
       </c>
       <c r="M39">
-        <v>92.26000000000001</v>
+        <v>23.34</v>
       </c>
       <c r="N39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39">
-        <v>97.56</v>
+        <v>46.96</v>
       </c>
       <c r="P39">
-        <v>870.35</v>
+        <v>366.84</v>
       </c>
       <c r="Q39">
-        <v>37.8</v>
+        <v>25.4</v>
       </c>
       <c r="R39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S39">
-        <v>42.33</v>
+        <v>44.74</v>
       </c>
       <c r="T39">
-        <v>382.39</v>
+        <v>319.67</v>
       </c>
       <c r="U39">
-        <v>28.9</v>
+        <v>23.74</v>
       </c>
       <c r="V39" t="s">
         <v>123</v>
@@ -2748,52 +2772,52 @@
         <v>68</v>
       </c>
       <c r="G40">
-        <v>1164.73</v>
+        <v>118.17</v>
       </c>
       <c r="H40">
-        <v>1686.65</v>
+        <v>602.09</v>
       </c>
       <c r="I40">
-        <v>76.58</v>
+        <v>32.47</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K40">
-        <v>1011.44</v>
+        <v>105.27</v>
       </c>
       <c r="L40">
-        <v>1690.39</v>
+        <v>549.85</v>
       </c>
       <c r="M40">
-        <v>105.94</v>
+        <v>33.87</v>
       </c>
       <c r="N40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40">
-        <v>126.08</v>
+        <v>62.07</v>
       </c>
       <c r="P40">
-        <v>927.15</v>
+        <v>376.46</v>
       </c>
       <c r="Q40">
-        <v>50.35</v>
+        <v>36.71</v>
       </c>
       <c r="R40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S40">
-        <v>81.41</v>
+        <v>65.06</v>
       </c>
       <c r="T40">
-        <v>471.22</v>
+        <v>323.89</v>
       </c>
       <c r="U40">
-        <v>41.62</v>
+        <v>37.25</v>
       </c>
       <c r="V40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -2806,28 +2830,28 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="I41">
-        <v>71.13871455576559</v>
+        <v>28.10333333333333</v>
       </c>
       <c r="J41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M41">
-        <v>99.3254945054945</v>
+        <v>28.75239641657335</v>
       </c>
       <c r="N41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q41">
-        <v>44.53842315369261</v>
+        <v>31.22701520912548</v>
       </c>
       <c r="R41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U41">
-        <v>35.50651162790697</v>
+        <v>30.8351798561151</v>
       </c>
       <c r="V41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -2846,52 +2870,52 @@
         <v>68</v>
       </c>
       <c r="G42">
-        <v>30.56</v>
+        <v>28.58</v>
       </c>
       <c r="H42">
-        <v>193.52</v>
+        <v>209.21</v>
       </c>
       <c r="I42">
-        <v>24.29</v>
+        <v>18.85</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K42">
-        <v>40.66</v>
+        <v>36.72</v>
       </c>
       <c r="L42">
-        <v>229.79</v>
+        <v>204.17</v>
       </c>
       <c r="M42">
-        <v>24.51</v>
+        <v>19.35</v>
       </c>
       <c r="N42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42">
-        <v>35.96</v>
+        <v>34.96</v>
       </c>
       <c r="P42">
-        <v>225.99</v>
+        <v>225.96</v>
       </c>
       <c r="Q42">
-        <v>14.49</v>
+        <v>12.71</v>
       </c>
       <c r="R42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S42">
-        <v>34.46</v>
+        <v>32.02</v>
       </c>
       <c r="T42">
-        <v>154.92</v>
+        <v>150.76</v>
       </c>
       <c r="U42">
-        <v>12.4</v>
+        <v>12.33</v>
       </c>
       <c r="V42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -2908,52 +2932,52 @@
         <v>108</v>
       </c>
       <c r="G43">
-        <v>30.56</v>
+        <v>28.58</v>
       </c>
       <c r="H43">
-        <v>193.52</v>
+        <v>209.21</v>
       </c>
       <c r="I43">
-        <v>36.79</v>
+        <v>35.78</v>
       </c>
       <c r="J43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K43">
-        <v>40.66</v>
+        <v>36.72</v>
       </c>
       <c r="L43">
-        <v>229.79</v>
+        <v>204.17</v>
       </c>
       <c r="M43">
-        <v>39.24</v>
+        <v>37.85</v>
       </c>
       <c r="N43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O43">
-        <v>35.96</v>
+        <v>34.96</v>
       </c>
       <c r="P43">
-        <v>225.99</v>
+        <v>225.96</v>
       </c>
       <c r="Q43">
-        <v>38.35</v>
+        <v>38.37</v>
       </c>
       <c r="R43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S43">
-        <v>34.46</v>
+        <v>32.02</v>
       </c>
       <c r="T43">
-        <v>154.92</v>
+        <v>150.76</v>
       </c>
       <c r="U43">
-        <v>39.21</v>
+        <v>36.27</v>
       </c>
       <c r="V43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -2966,25 +2990,25 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="I44">
-        <v>28.85656346749226</v>
+        <v>25.10107692307692</v>
       </c>
       <c r="J44" t="s">
         <v>123</v>
       </c>
       <c r="M44">
-        <v>30.01969465648855</v>
+        <v>26.18076923076923</v>
       </c>
       <c r="N44" t="s">
         <v>123</v>
       </c>
       <c r="Q44">
-        <v>22.81614583333334</v>
+        <v>21.88378238341969</v>
       </c>
       <c r="R44" t="s">
         <v>123</v>
       </c>
       <c r="U44">
-        <v>21.63455555555556</v>
+        <v>21.15</v>
       </c>
       <c r="V44" t="s">
         <v>123</v>
@@ -3006,49 +3030,49 @@
         <v>108</v>
       </c>
       <c r="G45">
-        <v>83.40000000000001</v>
+        <v>70.33</v>
       </c>
       <c r="H45">
-        <v>437.94</v>
+        <v>378.99</v>
       </c>
       <c r="I45">
-        <v>4.82</v>
+        <v>4.98</v>
       </c>
       <c r="J45" t="s">
         <v>122</v>
       </c>
       <c r="K45">
-        <v>394.86</v>
+        <v>87.31</v>
       </c>
       <c r="L45">
-        <v>790.48</v>
+        <v>420.77</v>
       </c>
       <c r="M45">
-        <v>143.21</v>
+        <v>5.17</v>
       </c>
       <c r="N45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O45">
-        <v>109.1</v>
+        <v>46.91</v>
       </c>
       <c r="P45">
-        <v>505.59</v>
+        <v>310.69</v>
       </c>
       <c r="Q45">
-        <v>31.55</v>
+        <v>4.04</v>
       </c>
       <c r="R45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S45">
-        <v>45.28</v>
+        <v>48.73</v>
       </c>
       <c r="T45">
-        <v>253.03</v>
+        <v>279.04</v>
       </c>
       <c r="U45">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="V45" t="s">
         <v>122</v>
@@ -3068,52 +3092,52 @@
         <v>69</v>
       </c>
       <c r="G46">
-        <v>97.25</v>
+        <v>80.33</v>
       </c>
       <c r="H46">
-        <v>442.97</v>
+        <v>383.96</v>
       </c>
       <c r="I46">
-        <v>30.97</v>
+        <v>26.09</v>
       </c>
       <c r="J46" t="s">
         <v>123</v>
       </c>
       <c r="K46">
-        <v>401.01</v>
+        <v>95.92</v>
       </c>
       <c r="L46">
-        <v>795.51</v>
+        <v>425.8</v>
       </c>
       <c r="M46">
-        <v>112.74</v>
+        <v>27.25</v>
       </c>
       <c r="N46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O46">
-        <v>115.69</v>
+        <v>53.47</v>
       </c>
       <c r="P46">
-        <v>510.57</v>
+        <v>315.72</v>
       </c>
       <c r="Q46">
-        <v>39.01</v>
+        <v>17.6</v>
       </c>
       <c r="R46" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S46">
-        <v>51.7</v>
+        <v>55.15</v>
       </c>
       <c r="T46">
-        <v>258.06</v>
+        <v>284.07</v>
       </c>
       <c r="U46">
-        <v>18.1</v>
+        <v>18.79</v>
       </c>
       <c r="V46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3126,28 +3150,28 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="I47">
-        <v>28.9696812749004</v>
+        <v>23.50578696343402</v>
       </c>
       <c r="J47" t="s">
         <v>123</v>
       </c>
       <c r="M47">
-        <v>114.5625526537489</v>
+        <v>25.80066450567261</v>
       </c>
       <c r="N47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q47">
-        <v>38.54063870352716</v>
+        <v>16.7525</v>
       </c>
       <c r="R47" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U47">
-        <v>17.00355731225297</v>
+        <v>17.72434782608696</v>
       </c>
       <c r="V47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3160,25 +3184,25 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="I48">
-        <v>45.88102427921092</v>
+        <v>25.49451563103049</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M48">
-        <v>95.51107544810338</v>
+        <v>26.90679777512912</v>
       </c>
       <c r="N48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q48">
-        <v>36.97222337125129</v>
+        <v>21.70821797520661</v>
       </c>
       <c r="R48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U48">
-        <v>22.94353813559322</v>
+        <v>22.1347022587269</v>
       </c>
       <c r="V48" t="s">
         <v>123</v>
@@ -3202,52 +3226,52 @@
         <v>109</v>
       </c>
       <c r="G49">
-        <v>26.46</v>
+        <v>27.35</v>
       </c>
       <c r="H49">
-        <v>224.14</v>
+        <v>225.94</v>
       </c>
       <c r="I49">
-        <v>15.88</v>
+        <v>16.19</v>
       </c>
       <c r="J49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K49">
-        <v>29.7</v>
+        <v>28.37</v>
       </c>
       <c r="L49">
-        <v>217.25</v>
+        <v>223.44</v>
       </c>
       <c r="M49">
-        <v>15.18</v>
+        <v>14.46</v>
       </c>
       <c r="N49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O49">
-        <v>27.18</v>
+        <v>25.37</v>
       </c>
       <c r="P49">
-        <v>212.73</v>
+        <v>211.49</v>
       </c>
       <c r="Q49">
-        <v>13.54</v>
+        <v>12.79</v>
       </c>
       <c r="R49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S49">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="T49">
-        <v>164.91</v>
+        <v>171.17</v>
       </c>
       <c r="U49">
-        <v>12.87</v>
+        <v>12.62</v>
       </c>
       <c r="V49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3264,52 +3288,52 @@
         <v>68</v>
       </c>
       <c r="G50">
-        <v>21.38</v>
+        <v>21.27</v>
       </c>
       <c r="H50">
-        <v>230.52</v>
+        <v>232.41</v>
       </c>
       <c r="I50">
-        <v>14.13</v>
+        <v>13.94</v>
       </c>
       <c r="J50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K50">
-        <v>24.68</v>
+        <v>23.96</v>
       </c>
       <c r="L50">
-        <v>217.63</v>
+        <v>228.18</v>
       </c>
       <c r="M50">
-        <v>13.12</v>
+        <v>12.59</v>
       </c>
       <c r="N50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O50">
-        <v>21.18</v>
+        <v>19.67</v>
       </c>
       <c r="P50">
-        <v>219.21</v>
+        <v>214.64</v>
       </c>
       <c r="Q50">
-        <v>11.01</v>
+        <v>10.97</v>
       </c>
       <c r="R50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S50">
-        <v>17.85</v>
+        <v>18.46</v>
       </c>
       <c r="T50">
-        <v>165.53</v>
+        <v>169.8</v>
       </c>
       <c r="U50">
-        <v>10.19</v>
+        <v>10.41</v>
       </c>
       <c r="V50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3322,28 +3346,28 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="I51">
-        <v>15.0365</v>
+        <v>15.10317365269461</v>
       </c>
       <c r="J51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M51">
-        <v>14.17692810457516</v>
+        <v>13.55259016393443</v>
       </c>
       <c r="N51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q51">
-        <v>12.31661184210526</v>
+        <v>11.90676470588235</v>
       </c>
       <c r="R51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U51">
-        <v>11.59295302013423</v>
+        <v>11.54407894736842</v>
       </c>
       <c r="V51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3362,52 +3386,52 @@
         <v>72</v>
       </c>
       <c r="G52">
-        <v>40.84</v>
+        <v>11.55</v>
       </c>
       <c r="H52">
-        <v>626.37</v>
+        <v>478.18</v>
       </c>
       <c r="I52">
-        <v>16.65</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K52">
-        <v>501.64</v>
+        <v>49.04</v>
       </c>
       <c r="L52">
-        <v>929.02</v>
+        <v>602.5700000000001</v>
       </c>
       <c r="M52">
-        <v>93.05</v>
+        <v>15.74</v>
       </c>
       <c r="N52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O52">
-        <v>162.28</v>
+        <v>30.25</v>
       </c>
       <c r="P52">
-        <v>725.9299999999999</v>
+        <v>605.64</v>
       </c>
       <c r="Q52">
-        <v>35.62</v>
+        <v>11.55</v>
       </c>
       <c r="R52" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S52">
-        <v>25.96</v>
+        <v>25.99</v>
       </c>
       <c r="T52">
-        <v>463.55</v>
+        <v>420.09</v>
       </c>
       <c r="U52">
-        <v>10.87</v>
+        <v>11.05</v>
       </c>
       <c r="V52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3424,49 +3448,49 @@
         <v>110</v>
       </c>
       <c r="G53">
-        <v>109.88</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="H53">
-        <v>622.48</v>
+        <v>547.11</v>
       </c>
       <c r="I53">
-        <v>6.64</v>
+        <v>7.55</v>
       </c>
       <c r="J53" t="s">
         <v>122</v>
       </c>
       <c r="K53">
-        <v>534.9</v>
+        <v>88.41</v>
       </c>
       <c r="L53">
-        <v>961.0599999999999</v>
+        <v>663.09</v>
       </c>
       <c r="M53">
-        <v>11.37</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="N53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O53">
-        <v>181.56</v>
+        <v>53.29</v>
       </c>
       <c r="P53">
-        <v>756.97</v>
+        <v>624.37</v>
       </c>
       <c r="Q53">
-        <v>7.67</v>
+        <v>6.46</v>
       </c>
       <c r="R53" t="s">
         <v>122</v>
       </c>
       <c r="S53">
-        <v>52.53</v>
+        <v>49.87</v>
       </c>
       <c r="T53">
-        <v>475.68</v>
+        <v>434.97</v>
       </c>
       <c r="U53">
-        <v>6.54</v>
+        <v>6.63</v>
       </c>
       <c r="V53" t="s">
         <v>122</v>
@@ -3486,52 +3510,52 @@
         <v>109</v>
       </c>
       <c r="G54">
-        <v>109.88</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="H54">
-        <v>622.48</v>
+        <v>547.11</v>
       </c>
       <c r="I54">
-        <v>63.79</v>
+        <v>57.13</v>
       </c>
       <c r="J54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K54">
-        <v>534.9</v>
+        <v>88.41</v>
       </c>
       <c r="L54">
-        <v>961.0599999999999</v>
+        <v>663.09</v>
       </c>
       <c r="M54">
-        <v>69.29000000000001</v>
+        <v>62.43</v>
       </c>
       <c r="N54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O54">
-        <v>181.56</v>
+        <v>53.29</v>
       </c>
       <c r="P54">
-        <v>756.97</v>
+        <v>624.37</v>
       </c>
       <c r="Q54">
-        <v>49.99</v>
+        <v>48.67</v>
       </c>
       <c r="R54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S54">
-        <v>52.53</v>
+        <v>49.87</v>
       </c>
       <c r="T54">
-        <v>475.68</v>
+        <v>434.97</v>
       </c>
       <c r="U54">
-        <v>51.76</v>
+        <v>51.51</v>
       </c>
       <c r="V54" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -3544,28 +3568,28 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="I55">
-        <v>15.78723312883436</v>
+        <v>14.0011054313099</v>
       </c>
       <c r="J55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M55">
-        <v>53.80714285714286</v>
+        <v>14.80932577189666</v>
       </c>
       <c r="N55" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q55">
-        <v>26.24044262295082</v>
+        <v>11.90352019785655</v>
       </c>
       <c r="R55" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U55">
-        <v>11.42915254237288</v>
+        <v>11.48551839464883</v>
       </c>
       <c r="V55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -3584,49 +3608,49 @@
         <v>68</v>
       </c>
       <c r="G56">
-        <v>63.26</v>
+        <v>65.22</v>
       </c>
       <c r="H56">
-        <v>298.45</v>
+        <v>299</v>
       </c>
       <c r="I56">
-        <v>10.07</v>
+        <v>10.19</v>
       </c>
       <c r="J56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K56">
-        <v>76.40000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="L56">
-        <v>307.89</v>
+        <v>311.66</v>
       </c>
       <c r="M56">
-        <v>11.62</v>
+        <v>12.02</v>
       </c>
       <c r="N56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O56">
-        <v>69.40000000000001</v>
+        <v>68.97</v>
       </c>
       <c r="P56">
-        <v>280.39</v>
+        <v>284.33</v>
       </c>
       <c r="Q56">
-        <v>11.08</v>
+        <v>10.7</v>
       </c>
       <c r="R56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S56">
-        <v>67.87</v>
+        <v>67.78</v>
       </c>
       <c r="T56">
-        <v>255.98</v>
+        <v>255.18</v>
       </c>
       <c r="U56">
-        <v>9.25</v>
+        <v>9.01</v>
       </c>
       <c r="V56" t="s">
         <v>122</v>
@@ -3646,52 +3670,52 @@
         <v>72</v>
       </c>
       <c r="G57">
-        <v>63.26</v>
+        <v>65.22</v>
       </c>
       <c r="H57">
-        <v>298.45</v>
+        <v>299</v>
       </c>
       <c r="I57">
-        <v>44.42</v>
+        <v>42.55</v>
       </c>
       <c r="J57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K57">
-        <v>76.40000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="L57">
-        <v>307.89</v>
+        <v>311.66</v>
       </c>
       <c r="M57">
-        <v>48.39</v>
+        <v>42.72</v>
       </c>
       <c r="N57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O57">
-        <v>69.40000000000001</v>
+        <v>68.97</v>
       </c>
       <c r="P57">
-        <v>280.39</v>
+        <v>284.33</v>
       </c>
       <c r="Q57">
-        <v>43.26</v>
+        <v>41.09</v>
       </c>
       <c r="R57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S57">
-        <v>67.87</v>
+        <v>67.78</v>
       </c>
       <c r="T57">
-        <v>255.98</v>
+        <v>255.18</v>
       </c>
       <c r="U57">
         <v>41.81</v>
       </c>
       <c r="V57" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -3708,52 +3732,52 @@
         <v>110</v>
       </c>
       <c r="G58">
-        <v>63.26</v>
+        <v>65.22</v>
       </c>
       <c r="H58">
-        <v>298.45</v>
+        <v>299</v>
       </c>
       <c r="I58">
-        <v>37.89</v>
+        <v>37.09</v>
       </c>
       <c r="J58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K58">
-        <v>76.40000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="L58">
-        <v>307.89</v>
+        <v>311.66</v>
       </c>
       <c r="M58">
-        <v>37.67</v>
+        <v>38.45</v>
       </c>
       <c r="N58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O58">
-        <v>69.40000000000001</v>
+        <v>68.97</v>
       </c>
       <c r="P58">
-        <v>280.39</v>
+        <v>284.33</v>
       </c>
       <c r="Q58">
-        <v>37.35</v>
+        <v>37.27</v>
       </c>
       <c r="R58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S58">
-        <v>67.87</v>
+        <v>67.78</v>
       </c>
       <c r="T58">
-        <v>255.98</v>
+        <v>255.18</v>
       </c>
       <c r="U58">
-        <v>37.27</v>
+        <v>37.13</v>
       </c>
       <c r="V58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -3766,25 +3790,25 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="I59">
-        <v>35.61015053763441</v>
+        <v>34.84047210300429</v>
       </c>
       <c r="J59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M59">
-        <v>37.35676573426574</v>
+        <v>35.59036777583187</v>
       </c>
       <c r="N59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q59">
-        <v>35.09579766536964</v>
+        <v>34.13377431906615</v>
       </c>
       <c r="R59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U59">
-        <v>34.6448031496063</v>
+        <v>34.54417322834646</v>
       </c>
       <c r="V59" t="s">
         <v>123</v>
@@ -3800,28 +3824,28 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="I60">
-        <v>19.19466666666667</v>
+        <v>18.05453396524486</v>
       </c>
       <c r="J60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M60">
-        <v>41.32075296735906</v>
+        <v>18.81921242774566</v>
       </c>
       <c r="N60" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q60">
-        <v>24.56920580700256</v>
+        <v>16.78951261222745</v>
       </c>
       <c r="R60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U60">
-        <v>16.63544658493871</v>
+        <v>16.56743944636678</v>
       </c>
       <c r="V60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -3940,7 +3964,7 @@
         <v>122</v>
       </c>
       <c r="S62">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="T62">
         <v>133.33</v>
@@ -3975,7 +3999,7 @@
         <v>10.47</v>
       </c>
       <c r="J63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K63">
         <v>14.43</v>
@@ -3987,7 +4011,7 @@
         <v>10.8</v>
       </c>
       <c r="N63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O63">
         <v>12.18</v>
@@ -3999,19 +4023,19 @@
         <v>10.17</v>
       </c>
       <c r="R63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S63">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="T63">
         <v>133.33</v>
       </c>
       <c r="U63">
-        <v>10.38</v>
+        <v>10.34</v>
       </c>
       <c r="V63" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4042,7 +4066,7 @@
         <v>122</v>
       </c>
       <c r="U64">
-        <v>7.367475728155339</v>
+        <v>7.341844660194173</v>
       </c>
       <c r="V64" t="s">
         <v>122</v>
@@ -4109,7 +4133,7 @@
         <v>17.31</v>
       </c>
       <c r="V65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4233,7 +4257,7 @@
         <v>18.85</v>
       </c>
       <c r="V67" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -4357,7 +4381,7 @@
         <v>12.82</v>
       </c>
       <c r="J70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K70">
         <v>10.19</v>
@@ -4369,7 +4393,7 @@
         <v>13.03</v>
       </c>
       <c r="N70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O70">
         <v>8.23</v>
@@ -4381,7 +4405,7 @@
         <v>12.46</v>
       </c>
       <c r="R70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S70">
         <v>7.5</v>
@@ -4393,7 +4417,7 @@
         <v>12.31</v>
       </c>
       <c r="V70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -4419,7 +4443,7 @@
         <v>11.11</v>
       </c>
       <c r="J71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K71">
         <v>10.19</v>
@@ -4431,7 +4455,7 @@
         <v>11.85</v>
       </c>
       <c r="N71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O71">
         <v>8.23</v>
@@ -4443,7 +4467,7 @@
         <v>11.5</v>
       </c>
       <c r="R71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S71">
         <v>7.5</v>
@@ -4455,7 +4479,7 @@
         <v>11.93</v>
       </c>
       <c r="V71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -4471,25 +4495,25 @@
         <v>10.27269911504425</v>
       </c>
       <c r="J72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M72">
         <v>10.96162995594714</v>
       </c>
       <c r="N72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q72">
         <v>10.18820754716981</v>
       </c>
       <c r="R72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U72">
         <v>10.2242</v>
       </c>
       <c r="V72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -4520,7 +4544,7 @@
         <v>122</v>
       </c>
       <c r="U73">
-        <v>8.997098765432099</v>
+        <v>8.980802469135803</v>
       </c>
       <c r="V73" t="s">
         <v>122</v>
@@ -4544,52 +4568,52 @@
         <v>78</v>
       </c>
       <c r="G74">
-        <v>53.25</v>
+        <v>51.13</v>
       </c>
       <c r="H74">
-        <v>267.04</v>
+        <v>268.06</v>
       </c>
       <c r="I74">
-        <v>15.51</v>
+        <v>15.27</v>
       </c>
       <c r="J74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K74">
-        <v>51.42</v>
+        <v>49.36</v>
       </c>
       <c r="L74">
-        <v>245.64</v>
+        <v>251.51</v>
       </c>
       <c r="M74">
-        <v>14.01</v>
+        <v>13.68</v>
       </c>
       <c r="N74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O74">
-        <v>49.25</v>
+        <v>45.48</v>
       </c>
       <c r="P74">
-        <v>276.8</v>
+        <v>257.08</v>
       </c>
       <c r="Q74">
-        <v>13.79</v>
+        <v>12.87</v>
       </c>
       <c r="R74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S74">
-        <v>44.95</v>
+        <v>44.83</v>
       </c>
       <c r="T74">
-        <v>181.77</v>
+        <v>189.29</v>
       </c>
       <c r="U74">
-        <v>12.2</v>
+        <v>12.98</v>
       </c>
       <c r="V74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4606,52 +4630,52 @@
         <v>76</v>
       </c>
       <c r="G75">
-        <v>53.25</v>
+        <v>51.13</v>
       </c>
       <c r="H75">
-        <v>267.04</v>
+        <v>268.06</v>
       </c>
       <c r="I75">
-        <v>18.85</v>
+        <v>18.51</v>
       </c>
       <c r="J75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K75">
-        <v>51.42</v>
+        <v>49.36</v>
       </c>
       <c r="L75">
-        <v>245.64</v>
+        <v>251.51</v>
       </c>
       <c r="M75">
-        <v>18.28</v>
+        <v>17.95</v>
       </c>
       <c r="N75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O75">
-        <v>49.25</v>
+        <v>45.48</v>
       </c>
       <c r="P75">
-        <v>276.8</v>
+        <v>257.08</v>
       </c>
       <c r="Q75">
-        <v>16.71</v>
+        <v>15.79</v>
       </c>
       <c r="R75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S75">
-        <v>44.95</v>
+        <v>44.83</v>
       </c>
       <c r="T75">
-        <v>181.77</v>
+        <v>189.29</v>
       </c>
       <c r="U75">
-        <v>16.24</v>
+        <v>16.48</v>
       </c>
       <c r="V75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -4668,52 +4692,52 @@
         <v>77</v>
       </c>
       <c r="G76">
-        <v>53.25</v>
+        <v>51.13</v>
       </c>
       <c r="H76">
-        <v>267.04</v>
+        <v>268.06</v>
       </c>
       <c r="I76">
-        <v>63.15</v>
+        <v>58.82</v>
       </c>
       <c r="J76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K76">
-        <v>51.42</v>
+        <v>49.36</v>
       </c>
       <c r="L76">
-        <v>245.64</v>
+        <v>251.51</v>
       </c>
       <c r="M76">
-        <v>56.64</v>
+        <v>51.24</v>
       </c>
       <c r="N76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O76">
-        <v>49.25</v>
+        <v>45.48</v>
       </c>
       <c r="P76">
-        <v>276.8</v>
+        <v>257.08</v>
       </c>
       <c r="Q76">
-        <v>58.58</v>
+        <v>52.14</v>
       </c>
       <c r="R76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S76">
-        <v>44.95</v>
+        <v>44.83</v>
       </c>
       <c r="T76">
-        <v>181.77</v>
+        <v>189.29</v>
       </c>
       <c r="U76">
-        <v>50.54</v>
+        <v>48.98</v>
       </c>
       <c r="V76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -4726,28 +4750,28 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="I77">
-        <v>21.99088077336198</v>
+        <v>21.38533261802576</v>
       </c>
       <c r="J77" t="s">
         <v>123</v>
       </c>
       <c r="M77">
-        <v>20.78079396984925</v>
+        <v>20.08974899598394</v>
       </c>
       <c r="N77" t="s">
         <v>123</v>
       </c>
       <c r="Q77">
-        <v>19.89309245483528</v>
+        <v>18.54537154989384</v>
       </c>
       <c r="R77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U77">
-        <v>18.8806008583691</v>
+        <v>18.87914163090129</v>
       </c>
       <c r="V77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -4766,49 +4790,49 @@
         <v>76</v>
       </c>
       <c r="G78">
-        <v>41.79</v>
+        <v>41.53</v>
       </c>
       <c r="H78">
-        <v>247.71</v>
+        <v>239.23</v>
       </c>
       <c r="I78">
-        <v>22.49</v>
+        <v>22.26</v>
       </c>
       <c r="J78" t="s">
         <v>123</v>
       </c>
       <c r="K78">
-        <v>37.29</v>
+        <v>37.46</v>
       </c>
       <c r="L78">
-        <v>228.26</v>
+        <v>225.13</v>
       </c>
       <c r="M78">
-        <v>18.52</v>
+        <v>18.78</v>
       </c>
       <c r="N78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O78">
-        <v>33.01</v>
+        <v>32.75</v>
       </c>
       <c r="P78">
-        <v>211.04</v>
+        <v>210.91</v>
       </c>
       <c r="Q78">
-        <v>18.62</v>
+        <v>18.99</v>
       </c>
       <c r="R78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S78">
-        <v>33.7</v>
+        <v>32.83</v>
       </c>
       <c r="T78">
-        <v>161.62</v>
+        <v>151.81</v>
       </c>
       <c r="U78">
-        <v>24.72</v>
+        <v>24.51</v>
       </c>
       <c r="V78" t="s">
         <v>123</v>
@@ -4828,52 +4852,52 @@
         <v>77</v>
       </c>
       <c r="G79">
-        <v>40.58</v>
+        <v>40.29</v>
       </c>
       <c r="H79">
-        <v>243.49</v>
+        <v>235.01</v>
       </c>
       <c r="I79">
-        <v>37.59</v>
+        <v>37.07</v>
       </c>
       <c r="J79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K79">
-        <v>35.91</v>
+        <v>36.12</v>
       </c>
       <c r="L79">
-        <v>224.05</v>
+        <v>220.91</v>
       </c>
       <c r="M79">
-        <v>39.14</v>
+        <v>39.57</v>
       </c>
       <c r="N79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O79">
-        <v>32.4</v>
+        <v>32.24</v>
       </c>
       <c r="P79">
-        <v>206.82</v>
+        <v>206.69</v>
       </c>
       <c r="Q79">
-        <v>37.91</v>
+        <v>38</v>
       </c>
       <c r="R79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S79">
-        <v>32.44</v>
+        <v>31.56</v>
       </c>
       <c r="T79">
-        <v>157.4</v>
+        <v>147.59</v>
       </c>
       <c r="U79">
-        <v>41.25</v>
+        <v>41.07</v>
       </c>
       <c r="V79" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -4890,52 +4914,52 @@
         <v>79</v>
       </c>
       <c r="G80">
-        <v>40.58</v>
+        <v>40.29</v>
       </c>
       <c r="H80">
-        <v>243.49</v>
+        <v>235.01</v>
       </c>
       <c r="I80">
-        <v>49.09</v>
+        <v>49.25</v>
       </c>
       <c r="J80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K80">
-        <v>35.91</v>
+        <v>36.12</v>
       </c>
       <c r="L80">
-        <v>224.05</v>
+        <v>220.91</v>
       </c>
       <c r="M80">
-        <v>46.55</v>
+        <v>46.6</v>
       </c>
       <c r="N80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O80">
-        <v>32.4</v>
+        <v>32.24</v>
       </c>
       <c r="P80">
-        <v>206.82</v>
+        <v>206.69</v>
       </c>
       <c r="Q80">
-        <v>48.67</v>
+        <v>48.56</v>
       </c>
       <c r="R80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S80">
-        <v>32.44</v>
+        <v>31.56</v>
       </c>
       <c r="T80">
-        <v>157.4</v>
+        <v>147.59</v>
       </c>
       <c r="U80">
-        <v>52.58</v>
+        <v>52.29</v>
       </c>
       <c r="V80" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -4948,28 +4972,28 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="I81">
-        <v>41.31907488986784</v>
+        <v>41.17590308370044</v>
       </c>
       <c r="J81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M81">
-        <v>39.81067632850242</v>
+        <v>40.02246376811594</v>
       </c>
       <c r="N81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q81">
-        <v>40.59340659340659</v>
+        <v>40.62230769230769</v>
       </c>
       <c r="R81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U81">
-        <v>44.6458695652174</v>
+        <v>44.40391304347826</v>
       </c>
       <c r="V81" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -4988,43 +5012,43 @@
         <v>79</v>
       </c>
       <c r="G82">
-        <v>59.03</v>
+        <v>57.96</v>
       </c>
       <c r="H82">
-        <v>243.14</v>
+        <v>247.69</v>
       </c>
       <c r="I82">
-        <v>26.02</v>
+        <v>25.51</v>
       </c>
       <c r="J82" t="s">
         <v>123</v>
       </c>
       <c r="K82">
-        <v>54.55</v>
+        <v>54.44</v>
       </c>
       <c r="L82">
-        <v>251</v>
+        <v>253.27</v>
       </c>
       <c r="M82">
-        <v>24.88</v>
+        <v>25.09</v>
       </c>
       <c r="N82" t="s">
         <v>123</v>
       </c>
       <c r="O82">
-        <v>47.56</v>
+        <v>47.13</v>
       </c>
       <c r="P82">
-        <v>231.02</v>
+        <v>229.87</v>
       </c>
       <c r="Q82">
-        <v>24.73</v>
+        <v>24.44</v>
       </c>
       <c r="R82" t="s">
         <v>123</v>
       </c>
       <c r="S82">
-        <v>47.53</v>
+        <v>47.43</v>
       </c>
       <c r="T82">
         <v>205.77</v>
@@ -5050,43 +5074,43 @@
         <v>78</v>
       </c>
       <c r="G83">
-        <v>55.77</v>
+        <v>54.73</v>
       </c>
       <c r="H83">
-        <v>238.52</v>
+        <v>243.08</v>
       </c>
       <c r="I83">
-        <v>39.57</v>
+        <v>39.12</v>
       </c>
       <c r="J83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K83">
-        <v>51.42</v>
+        <v>51.32</v>
       </c>
       <c r="L83">
-        <v>246.38</v>
+        <v>248.65</v>
       </c>
       <c r="M83">
-        <v>41.51</v>
+        <v>41.17</v>
       </c>
       <c r="N83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O83">
-        <v>44.55</v>
+        <v>44.12</v>
       </c>
       <c r="P83">
-        <v>226.41</v>
+        <v>225.25</v>
       </c>
       <c r="Q83">
-        <v>42.93</v>
+        <v>42.7</v>
       </c>
       <c r="R83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S83">
-        <v>44.43</v>
+        <v>44.33</v>
       </c>
       <c r="T83">
         <v>201.16</v>
@@ -5095,7 +5119,7 @@
         <v>43.31</v>
       </c>
       <c r="V83" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:22">
@@ -5112,49 +5136,49 @@
         <v>76</v>
       </c>
       <c r="G84">
-        <v>55.77</v>
+        <v>54.73</v>
       </c>
       <c r="H84">
-        <v>238.52</v>
+        <v>243.08</v>
       </c>
       <c r="I84">
-        <v>35.35</v>
+        <v>33.88</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K84">
-        <v>51.42</v>
+        <v>51.32</v>
       </c>
       <c r="L84">
-        <v>246.38</v>
+        <v>248.65</v>
       </c>
       <c r="M84">
-        <v>36.59</v>
+        <v>37.08</v>
       </c>
       <c r="N84" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O84">
-        <v>44.55</v>
+        <v>44.12</v>
       </c>
       <c r="P84">
-        <v>226.41</v>
+        <v>225.25</v>
       </c>
       <c r="Q84">
-        <v>35.54</v>
+        <v>34.98</v>
       </c>
       <c r="R84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S84">
-        <v>44.43</v>
+        <v>44.33</v>
       </c>
       <c r="T84">
         <v>201.16</v>
       </c>
       <c r="U84">
-        <v>33.57</v>
+        <v>31.95</v>
       </c>
       <c r="V84" t="s">
         <v>123</v>
@@ -5170,25 +5194,25 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="I85">
-        <v>32.72982558139535</v>
+        <v>32.15930232558139</v>
       </c>
       <c r="J85" t="s">
         <v>123</v>
       </c>
       <c r="M85">
-        <v>33.25417721518987</v>
+        <v>33.25056962025317</v>
       </c>
       <c r="N85" t="s">
         <v>123</v>
       </c>
       <c r="Q85">
-        <v>33.84770992366413</v>
+        <v>33.55977099236641</v>
       </c>
       <c r="R85" t="s">
         <v>123</v>
       </c>
       <c r="U85">
-        <v>34.7527397260274</v>
+        <v>34.59739726027398</v>
       </c>
       <c r="V85" t="s">
         <v>123</v>
@@ -5210,49 +5234,49 @@
         <v>77</v>
       </c>
       <c r="G86">
-        <v>112.41</v>
+        <v>132.26</v>
       </c>
       <c r="H86">
-        <v>594.45</v>
+        <v>628.88</v>
       </c>
       <c r="I86">
-        <v>23.65</v>
+        <v>22.17</v>
       </c>
       <c r="J86" t="s">
         <v>123</v>
       </c>
       <c r="K86">
-        <v>213.78</v>
+        <v>223.22</v>
       </c>
       <c r="L86">
-        <v>730.09</v>
+        <v>723.35</v>
       </c>
       <c r="M86">
-        <v>27.19</v>
+        <v>27.8</v>
       </c>
       <c r="N86" t="s">
         <v>123</v>
       </c>
       <c r="O86">
-        <v>121.75</v>
+        <v>124.67</v>
       </c>
       <c r="P86">
-        <v>584.5700000000001</v>
+        <v>570.4299999999999</v>
       </c>
       <c r="Q86">
-        <v>22.13</v>
+        <v>21.27</v>
       </c>
       <c r="R86" t="s">
         <v>123</v>
       </c>
       <c r="S86">
-        <v>92.39</v>
+        <v>111.88</v>
       </c>
       <c r="T86">
-        <v>406.65</v>
+        <v>476.65</v>
       </c>
       <c r="U86">
-        <v>21.87</v>
+        <v>23.83</v>
       </c>
       <c r="V86" t="s">
         <v>123</v>
@@ -5272,49 +5296,49 @@
         <v>79</v>
       </c>
       <c r="G87">
-        <v>113.32</v>
+        <v>133.13</v>
       </c>
       <c r="H87">
-        <v>592.51</v>
+        <v>626.9400000000001</v>
       </c>
       <c r="I87">
-        <v>26.68</v>
+        <v>28.79</v>
       </c>
       <c r="J87" t="s">
         <v>123</v>
       </c>
       <c r="K87">
-        <v>213.93</v>
+        <v>223.33</v>
       </c>
       <c r="L87">
-        <v>728.15</v>
+        <v>721.41</v>
       </c>
       <c r="M87">
-        <v>33.34</v>
+        <v>35.21</v>
       </c>
       <c r="N87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O87">
-        <v>122.39</v>
+        <v>125.41</v>
       </c>
       <c r="P87">
-        <v>582.63</v>
+        <v>568.49</v>
       </c>
       <c r="Q87">
-        <v>26.26</v>
+        <v>27.39</v>
       </c>
       <c r="R87" t="s">
         <v>123</v>
       </c>
       <c r="S87">
-        <v>92.51000000000001</v>
+        <v>112.5</v>
       </c>
       <c r="T87">
-        <v>404.72</v>
+        <v>474.72</v>
       </c>
       <c r="U87">
-        <v>27.43</v>
+        <v>28.4</v>
       </c>
       <c r="V87" t="s">
         <v>123</v>
@@ -5334,52 +5358,52 @@
         <v>78</v>
       </c>
       <c r="G88">
-        <v>113.73</v>
+        <v>139.21</v>
       </c>
       <c r="H88">
-        <v>517.02</v>
+        <v>546.59</v>
       </c>
       <c r="I88">
-        <v>140.96</v>
+        <v>157.86</v>
       </c>
       <c r="J88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K88">
-        <v>215.23</v>
+        <v>231.52</v>
       </c>
       <c r="L88">
-        <v>672.51</v>
+        <v>696.89</v>
       </c>
       <c r="M88">
-        <v>235.75</v>
+        <v>242.15</v>
       </c>
       <c r="N88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O88">
-        <v>125.79</v>
+        <v>138.43</v>
       </c>
       <c r="P88">
-        <v>424.96</v>
+        <v>479.19</v>
       </c>
       <c r="Q88">
-        <v>167.16</v>
+        <v>170.86</v>
       </c>
       <c r="R88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S88">
-        <v>93.91</v>
+        <v>101.59</v>
       </c>
       <c r="T88">
-        <v>271.81</v>
+        <v>285.74</v>
       </c>
       <c r="U88">
-        <v>127.4</v>
+        <v>136.16</v>
       </c>
       <c r="V88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -5392,28 +5416,28 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="I89">
-        <v>34.27044514106583</v>
+        <v>37.36033536585366</v>
       </c>
       <c r="J89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M89">
-        <v>46.77308377896613</v>
+        <v>48.94062064965198</v>
       </c>
       <c r="N89" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q89">
-        <v>36.01006591957812</v>
+        <v>37.61184124918673</v>
       </c>
       <c r="R89" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U89">
-        <v>35.80801136363637</v>
+        <v>36.93002770083103</v>
       </c>
       <c r="V89" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -5426,25 +5450,25 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="I90">
-        <v>30.92455925088796</v>
+        <v>32.32956092904868</v>
       </c>
       <c r="J90" t="s">
         <v>123</v>
       </c>
       <c r="M90">
-        <v>36.90881599500157</v>
+        <v>37.981760715387</v>
       </c>
       <c r="N90" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q90">
-        <v>30.87621295658167</v>
+        <v>31.29150188162846</v>
       </c>
       <c r="R90" t="s">
         <v>123</v>
       </c>
       <c r="U90">
-        <v>30.67366477272727</v>
+        <v>31.27457223001403</v>
       </c>
       <c r="V90" t="s">
         <v>123</v>
@@ -5468,49 +5492,49 @@
         <v>99</v>
       </c>
       <c r="G91">
-        <v>72.44</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="H91">
-        <v>338.75</v>
+        <v>346.68</v>
       </c>
       <c r="I91">
-        <v>30.6</v>
+        <v>30.18</v>
       </c>
       <c r="J91" t="s">
         <v>123</v>
       </c>
       <c r="K91">
-        <v>78.59</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="L91">
-        <v>405.26</v>
+        <v>400.82</v>
       </c>
       <c r="M91">
-        <v>30.25</v>
+        <v>31.51</v>
       </c>
       <c r="N91" t="s">
         <v>123</v>
       </c>
       <c r="O91">
-        <v>73.31999999999999</v>
+        <v>68.88</v>
       </c>
       <c r="P91">
-        <v>365.01</v>
+        <v>359.58</v>
       </c>
       <c r="Q91">
-        <v>30.62</v>
+        <v>28.26</v>
       </c>
       <c r="R91" t="s">
         <v>123</v>
       </c>
       <c r="S91">
-        <v>67.19</v>
+        <v>73.86</v>
       </c>
       <c r="T91">
-        <v>292.56</v>
+        <v>307.19</v>
       </c>
       <c r="U91">
-        <v>28.94</v>
+        <v>32.75</v>
       </c>
       <c r="V91" t="s">
         <v>123</v>
@@ -5530,52 +5554,52 @@
         <v>76</v>
       </c>
       <c r="G92">
-        <v>72.09999999999999</v>
+        <v>70.52</v>
       </c>
       <c r="H92">
-        <v>335.88</v>
+        <v>343.81</v>
       </c>
       <c r="I92">
-        <v>34.71</v>
+        <v>33.87</v>
       </c>
       <c r="J92" t="s">
         <v>123</v>
       </c>
       <c r="K92">
-        <v>78.23</v>
+        <v>82.31</v>
       </c>
       <c r="L92">
-        <v>402.39</v>
+        <v>397.94</v>
       </c>
       <c r="M92">
-        <v>34.78</v>
+        <v>36.89</v>
       </c>
       <c r="N92" t="s">
+        <v>124</v>
+      </c>
+      <c r="O92">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="P92">
+        <v>356.7</v>
+      </c>
+      <c r="Q92">
+        <v>33.06</v>
+      </c>
+      <c r="R92" t="s">
         <v>123</v>
       </c>
-      <c r="O92">
-        <v>72.92</v>
-      </c>
-      <c r="P92">
-        <v>362.14</v>
-      </c>
-      <c r="Q92">
-        <v>35.54</v>
-      </c>
-      <c r="R92" t="s">
-        <v>121</v>
-      </c>
       <c r="S92">
-        <v>66.47</v>
+        <v>73.2</v>
       </c>
       <c r="T92">
-        <v>289.68</v>
+        <v>304.32</v>
       </c>
       <c r="U92">
-        <v>33.98</v>
+        <v>36.29</v>
       </c>
       <c r="V92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -5588,28 +5612,28 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="I93">
-        <v>34.29297066014671</v>
+        <v>33.49142150803461</v>
       </c>
       <c r="J93" t="s">
         <v>123</v>
       </c>
       <c r="M93">
-        <v>34.30867052023122</v>
+        <v>36.33175598631699</v>
       </c>
       <c r="N93" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q93">
+        <v>32.5644776119403</v>
+      </c>
+      <c r="R93" t="s">
         <v>123</v>
       </c>
-      <c r="Q93">
-        <v>35.02977777777778</v>
-      </c>
-      <c r="R93" t="s">
-        <v>121</v>
-      </c>
       <c r="U93">
-        <v>33.41138461538461</v>
+        <v>35.87459183673469</v>
       </c>
       <c r="V93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -5628,52 +5652,52 @@
         <v>76</v>
       </c>
       <c r="G94">
-        <v>48.02</v>
+        <v>57.38</v>
       </c>
       <c r="H94">
-        <v>263.06</v>
+        <v>275.62</v>
       </c>
       <c r="I94">
-        <v>46.47</v>
+        <v>47.78</v>
       </c>
       <c r="J94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K94">
-        <v>51.37</v>
+        <v>56.21</v>
       </c>
       <c r="L94">
-        <v>271</v>
+        <v>250.35</v>
       </c>
       <c r="M94">
-        <v>47.14</v>
+        <v>46.12</v>
       </c>
       <c r="N94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O94">
-        <v>41.92</v>
+        <v>50.84</v>
       </c>
       <c r="P94">
-        <v>239.3</v>
+        <v>258.8</v>
       </c>
       <c r="Q94">
-        <v>49.02</v>
+        <v>48.22</v>
       </c>
       <c r="R94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S94">
-        <v>39.16</v>
+        <v>57.46</v>
       </c>
       <c r="T94">
-        <v>175.21</v>
+        <v>217.71</v>
       </c>
       <c r="U94">
-        <v>43.68</v>
+        <v>50.1</v>
       </c>
       <c r="V94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -5690,52 +5714,52 @@
         <v>112</v>
       </c>
       <c r="G95">
-        <v>57.29</v>
+        <v>65.81</v>
       </c>
       <c r="H95">
-        <v>274.09</v>
+        <v>286.65</v>
       </c>
       <c r="I95">
-        <v>48.89</v>
+        <v>50.79</v>
       </c>
       <c r="J95" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K95">
-        <v>59.86</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="L95">
-        <v>282.03</v>
+        <v>261.38</v>
       </c>
       <c r="M95">
-        <v>47.78</v>
+        <v>46.81</v>
       </c>
       <c r="N95" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O95">
-        <v>48.73</v>
+        <v>58.64</v>
       </c>
       <c r="P95">
-        <v>250.33</v>
+        <v>269.83</v>
       </c>
       <c r="Q95">
-        <v>45.05</v>
+        <v>49.38</v>
       </c>
       <c r="R95" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S95">
-        <v>47.55</v>
+        <v>65.98</v>
       </c>
       <c r="T95">
-        <v>186.24</v>
+        <v>228.74</v>
       </c>
       <c r="U95">
-        <v>47.75</v>
+        <v>53.02</v>
       </c>
       <c r="V95" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -5752,52 +5776,52 @@
         <v>79</v>
       </c>
       <c r="G96">
-        <v>57.29</v>
+        <v>65.81</v>
       </c>
       <c r="H96">
-        <v>274.09</v>
+        <v>286.65</v>
       </c>
       <c r="I96">
-        <v>38.05</v>
+        <v>39.25</v>
       </c>
       <c r="J96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K96">
-        <v>59.86</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="L96">
-        <v>282.03</v>
+        <v>261.38</v>
       </c>
       <c r="M96">
-        <v>39.36</v>
+        <v>38.64</v>
       </c>
       <c r="N96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O96">
-        <v>48.73</v>
+        <v>58.64</v>
       </c>
       <c r="P96">
-        <v>250.33</v>
+        <v>269.83</v>
       </c>
       <c r="Q96">
-        <v>37.21</v>
+        <v>39.4</v>
       </c>
       <c r="R96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S96">
-        <v>47.55</v>
+        <v>65.98</v>
       </c>
       <c r="T96">
-        <v>186.24</v>
+        <v>228.74</v>
       </c>
       <c r="U96">
-        <v>34.79</v>
+        <v>41.27</v>
       </c>
       <c r="V96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:22">
@@ -5810,28 +5834,28 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="I97">
-        <v>42.92987261146497</v>
+        <v>44.26042372881356</v>
       </c>
       <c r="J97" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M97">
-        <v>43.34636363636364</v>
+        <v>42.45572602739726</v>
       </c>
       <c r="N97" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q97">
-        <v>42.17947183098591</v>
+        <v>44.02402476780185</v>
       </c>
       <c r="R97" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U97">
-        <v>40.05536231884058</v>
+        <v>46.38701298701299</v>
       </c>
       <c r="V97" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:22">
@@ -5850,52 +5874,52 @@
         <v>79</v>
       </c>
       <c r="G98">
-        <v>118.77</v>
+        <v>123.25</v>
       </c>
       <c r="H98">
-        <v>293.58</v>
+        <v>291.55</v>
       </c>
       <c r="I98">
-        <v>57.63</v>
+        <v>57.83</v>
       </c>
       <c r="J98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K98">
-        <v>117.15</v>
+        <v>124.48</v>
       </c>
       <c r="L98">
-        <v>289.58</v>
+        <v>292.88</v>
       </c>
       <c r="M98">
-        <v>57.14</v>
+        <v>59.24</v>
       </c>
       <c r="N98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O98">
-        <v>99.98</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="P98">
-        <v>296.8</v>
+        <v>290.23</v>
       </c>
       <c r="Q98">
-        <v>55.62</v>
+        <v>54.36</v>
       </c>
       <c r="R98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S98">
-        <v>81.23</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="T98">
-        <v>268.09</v>
+        <v>274.66</v>
       </c>
       <c r="U98">
-        <v>52.75</v>
+        <v>51.05</v>
       </c>
       <c r="V98" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:22">
@@ -5912,52 +5936,52 @@
         <v>99</v>
       </c>
       <c r="G99">
-        <v>115.7</v>
+        <v>117.07</v>
       </c>
       <c r="H99">
-        <v>281.79</v>
+        <v>277.28</v>
       </c>
       <c r="I99">
-        <v>58.49</v>
+        <v>60.29</v>
       </c>
       <c r="J99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K99">
-        <v>116.95</v>
+        <v>119.92</v>
       </c>
       <c r="L99">
-        <v>275.3</v>
+        <v>283.75</v>
       </c>
       <c r="M99">
-        <v>58.65</v>
+        <v>58.79</v>
       </c>
       <c r="N99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O99">
-        <v>96.48999999999999</v>
+        <v>96.16</v>
       </c>
       <c r="P99">
-        <v>282.53</v>
+        <v>275.96</v>
       </c>
       <c r="Q99">
-        <v>56.28</v>
+        <v>58.23</v>
       </c>
       <c r="R99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S99">
-        <v>80.73</v>
+        <v>77.06</v>
       </c>
       <c r="T99">
-        <v>250.84</v>
+        <v>258.49</v>
       </c>
       <c r="U99">
-        <v>50.53</v>
+        <v>46.42</v>
       </c>
       <c r="V99" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -5974,52 +5998,52 @@
         <v>76</v>
       </c>
       <c r="G100">
-        <v>115.7</v>
+        <v>117.07</v>
       </c>
       <c r="H100">
-        <v>281.79</v>
+        <v>277.28</v>
       </c>
       <c r="I100">
-        <v>50.81</v>
+        <v>54.44</v>
       </c>
       <c r="J100" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K100">
-        <v>116.95</v>
+        <v>119.92</v>
       </c>
       <c r="L100">
-        <v>275.3</v>
+        <v>283.75</v>
       </c>
       <c r="M100">
-        <v>54.21</v>
+        <v>54.66</v>
       </c>
       <c r="N100" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O100">
-        <v>96.48999999999999</v>
+        <v>96.16</v>
       </c>
       <c r="P100">
-        <v>282.53</v>
+        <v>275.96</v>
       </c>
       <c r="Q100">
-        <v>48.74</v>
+        <v>49.27</v>
       </c>
       <c r="R100" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S100">
-        <v>80.73</v>
+        <v>77.06</v>
       </c>
       <c r="T100">
-        <v>250.84</v>
+        <v>258.49</v>
       </c>
       <c r="U100">
-        <v>44.32</v>
+        <v>44.8</v>
       </c>
       <c r="V100" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -6032,28 +6056,28 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="I101">
-        <v>55.34334916864609</v>
+        <v>57.11028436018957</v>
       </c>
       <c r="J101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M101">
-        <v>56.42230024213075</v>
+        <v>57.51468292682927</v>
       </c>
       <c r="N101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q101">
-        <v>53.24682414698162</v>
+        <v>53.33651948051948</v>
       </c>
       <c r="R101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U101">
-        <v>49.43870967741935</v>
+        <v>47.9210989010989</v>
       </c>
       <c r="V101" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -6072,52 +6096,52 @@
         <v>112</v>
       </c>
       <c r="G102">
-        <v>113.26</v>
+        <v>110.61</v>
       </c>
       <c r="H102">
-        <v>691.74</v>
+        <v>555.74</v>
       </c>
       <c r="I102">
-        <v>14.16</v>
+        <v>19.7</v>
       </c>
       <c r="J102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K102">
-        <v>117.34</v>
+        <v>121.92</v>
       </c>
       <c r="L102">
-        <v>647.89</v>
+        <v>671.8200000000001</v>
       </c>
       <c r="M102">
-        <v>19.01</v>
+        <v>18.13</v>
       </c>
       <c r="N102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O102">
-        <v>83.12</v>
+        <v>88.11</v>
       </c>
       <c r="P102">
-        <v>481.64</v>
+        <v>501.7</v>
       </c>
       <c r="Q102">
-        <v>18.36</v>
+        <v>18.8</v>
       </c>
       <c r="R102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S102">
-        <v>75.72</v>
+        <v>83.5</v>
       </c>
       <c r="T102">
-        <v>339.93</v>
+        <v>428.47</v>
       </c>
       <c r="U102">
-        <v>14.07</v>
+        <v>16.47</v>
       </c>
       <c r="V102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -6134,52 +6158,52 @@
         <v>79</v>
       </c>
       <c r="G103">
-        <v>119.28</v>
+        <v>117.54</v>
       </c>
       <c r="H103">
-        <v>680.5</v>
+        <v>544.23</v>
       </c>
       <c r="I103">
-        <v>21.04</v>
+        <v>20.53</v>
       </c>
       <c r="J103" t="s">
         <v>123</v>
       </c>
       <c r="K103">
-        <v>123.01</v>
+        <v>128.58</v>
       </c>
       <c r="L103">
-        <v>636.39</v>
+        <v>660.3200000000001</v>
       </c>
       <c r="M103">
-        <v>21.59</v>
+        <v>21.55</v>
       </c>
       <c r="N103" t="s">
         <v>123</v>
       </c>
       <c r="O103">
-        <v>88.44</v>
+        <v>93.45</v>
       </c>
       <c r="P103">
-        <v>470.13</v>
+        <v>490.2</v>
       </c>
       <c r="Q103">
-        <v>18.24</v>
+        <v>18.7</v>
       </c>
       <c r="R103" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S103">
-        <v>81.43000000000001</v>
+        <v>90.09</v>
       </c>
       <c r="T103">
-        <v>328.43</v>
+        <v>416.97</v>
       </c>
       <c r="U103">
-        <v>17.45</v>
+        <v>17.84</v>
       </c>
       <c r="V103" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -6196,52 +6220,52 @@
         <v>99</v>
       </c>
       <c r="G104">
-        <v>119.28</v>
+        <v>117.54</v>
       </c>
       <c r="H104">
-        <v>680.5</v>
+        <v>544.23</v>
       </c>
       <c r="I104">
-        <v>60.19</v>
+        <v>61.17</v>
       </c>
       <c r="J104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K104">
-        <v>123.01</v>
+        <v>128.58</v>
       </c>
       <c r="L104">
-        <v>636.39</v>
+        <v>660.3200000000001</v>
       </c>
       <c r="M104">
-        <v>62.23</v>
+        <v>62.92</v>
       </c>
       <c r="N104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O104">
-        <v>88.44</v>
+        <v>93.45</v>
       </c>
       <c r="P104">
-        <v>470.13</v>
+        <v>490.2</v>
       </c>
       <c r="Q104">
-        <v>52.32</v>
+        <v>54</v>
       </c>
       <c r="R104" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S104">
-        <v>81.43000000000001</v>
+        <v>90.09</v>
       </c>
       <c r="T104">
-        <v>328.43</v>
+        <v>416.97</v>
       </c>
       <c r="U104">
-        <v>51.96</v>
+        <v>56.84</v>
       </c>
       <c r="V104" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -6254,25 +6278,25 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="I105">
-        <v>23.71573230938014</v>
+        <v>23.31716738197425</v>
       </c>
       <c r="J105" t="s">
         <v>123</v>
       </c>
       <c r="M105">
-        <v>24.40545697487974</v>
+        <v>24.37877211238293</v>
       </c>
       <c r="N105" t="s">
         <v>123</v>
       </c>
       <c r="Q105">
-        <v>20.61863985807214</v>
+        <v>21.16606519208382</v>
       </c>
       <c r="R105" t="s">
         <v>123</v>
       </c>
       <c r="U105">
-        <v>20.01696517412935</v>
+        <v>20.88799511002445</v>
       </c>
       <c r="V105" t="s">
         <v>123</v>
@@ -6288,25 +6312,25 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="I106">
-        <v>32.00976303317535</v>
+        <v>31.98796462742824</v>
       </c>
       <c r="J106" t="s">
         <v>123</v>
       </c>
       <c r="M106">
-        <v>32.46516815176775</v>
+        <v>32.95923614997202</v>
       </c>
       <c r="N106" t="s">
         <v>123</v>
       </c>
       <c r="Q106">
-        <v>30.16621920404296</v>
+        <v>30.12367182662538</v>
       </c>
       <c r="R106" t="s">
         <v>123</v>
       </c>
       <c r="U106">
-        <v>28.88492753623188</v>
+        <v>30.41038809831824</v>
       </c>
       <c r="V106" t="s">
         <v>123</v>
@@ -6360,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>-1.57</v>
+        <v>-1.56</v>
       </c>
       <c r="R107" t="s">
         <v>122</v>
@@ -6462,7 +6486,7 @@
         <v>122</v>
       </c>
       <c r="Q109">
-        <v>-0.2651002227171492</v>
+        <v>-0.2585523385300669</v>
       </c>
       <c r="R109" t="s">
         <v>122</v>
@@ -6496,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="J110" t="s">
         <v>122</v>
@@ -6508,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="N110" t="s">
         <v>122</v>
@@ -6520,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="R110" t="s">
         <v>122</v>
@@ -6532,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="V110" t="s">
         <v>122</v>
@@ -6586,25 +6610,25 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="I112">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="J112" t="s">
         <v>122</v>
       </c>
       <c r="M112">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="N112" t="s">
         <v>122</v>
       </c>
       <c r="Q112">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="R112" t="s">
         <v>122</v>
       </c>
       <c r="U112">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="V112" t="s">
         <v>122</v>
@@ -6620,25 +6644,25 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="I113">
-        <v>0.5680269058295964</v>
+        <v>0.5722427831236121</v>
       </c>
       <c r="J113" t="s">
         <v>122</v>
       </c>
       <c r="M113">
-        <v>0.337046204620462</v>
+        <v>0.3489233278955954</v>
       </c>
       <c r="N113" t="s">
         <v>122</v>
       </c>
       <c r="Q113">
-        <v>0.1386302596239928</v>
+        <v>0.1573721340388007</v>
       </c>
       <c r="R113" t="s">
         <v>122</v>
       </c>
       <c r="U113">
-        <v>0.04318518518518519</v>
+        <v>0.05638376383763838</v>
       </c>
       <c r="V113" t="s">
         <v>122</v>
@@ -6665,49 +6689,49 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="I114">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="J114" t="s">
         <v>122</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>17.79</v>
       </c>
       <c r="M114">
-        <v>0.11</v>
+        <v>6.06</v>
       </c>
       <c r="N114" t="s">
         <v>122</v>
       </c>
       <c r="O114">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="P114">
-        <v>19.61</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>21.52</v>
+        <v>-0.13</v>
       </c>
       <c r="R114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S114">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T114">
-        <v>17.81</v>
+        <v>0</v>
       </c>
       <c r="U114">
-        <v>10.67</v>
+        <v>0.04</v>
       </c>
       <c r="V114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -6730,43 +6754,43 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="J115" t="s">
         <v>122</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>17.87</v>
       </c>
       <c r="M115">
-        <v>1.8</v>
+        <v>3.87</v>
       </c>
       <c r="N115" t="s">
         <v>122</v>
       </c>
       <c r="O115">
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="P115">
-        <v>19.69</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>8.16</v>
+        <v>1.41</v>
       </c>
       <c r="R115" t="s">
         <v>122</v>
       </c>
       <c r="S115">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="T115">
-        <v>17.89</v>
+        <v>0</v>
       </c>
       <c r="U115">
-        <v>5.98</v>
+        <v>1.37</v>
       </c>
       <c r="V115" t="s">
         <v>122</v>
@@ -6782,25 +6806,25 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="I116">
-        <v>0.7011764705882353</v>
+        <v>0.9277941176470588</v>
       </c>
       <c r="J116" t="s">
         <v>122</v>
       </c>
       <c r="M116">
-        <v>0.7572340425531915</v>
+        <v>5.22127659574468</v>
       </c>
       <c r="N116" t="s">
         <v>122</v>
       </c>
       <c r="Q116">
-        <v>16.91697478991597</v>
+        <v>0.4005882352941176</v>
       </c>
       <c r="R116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U116">
-        <v>8.764687500000001</v>
+        <v>0.5803125000000001</v>
       </c>
       <c r="V116" t="s">
         <v>122</v>
@@ -6822,49 +6846,49 @@
         <v>86</v>
       </c>
       <c r="G117">
-        <v>1.09</v>
+        <v>202.75</v>
       </c>
       <c r="H117">
-        <v>168.42</v>
+        <v>1179.29</v>
       </c>
       <c r="I117">
-        <v>5.66</v>
+        <v>31.57</v>
       </c>
       <c r="J117" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K117">
-        <v>3.22</v>
+        <v>175.95</v>
       </c>
       <c r="L117">
-        <v>382.23</v>
+        <v>1217.82</v>
       </c>
       <c r="M117">
-        <v>7.35</v>
+        <v>36</v>
       </c>
       <c r="N117" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O117">
-        <v>0.39</v>
+        <v>0.92</v>
       </c>
       <c r="P117">
-        <v>118.56</v>
+        <v>175.64</v>
       </c>
       <c r="Q117">
-        <v>6.94</v>
+        <v>8.42</v>
       </c>
       <c r="R117" t="s">
         <v>122</v>
       </c>
       <c r="S117">
-        <v>0.93</v>
+        <v>2.38</v>
       </c>
       <c r="T117">
-        <v>82.34</v>
+        <v>116.22</v>
       </c>
       <c r="U117">
-        <v>6.61</v>
+        <v>7.48</v>
       </c>
       <c r="V117" t="s">
         <v>122</v>
@@ -6884,52 +6908,52 @@
         <v>84</v>
       </c>
       <c r="G118">
-        <v>5.15</v>
+        <v>206.7</v>
       </c>
       <c r="H118">
-        <v>242.95</v>
+        <v>1161.6</v>
       </c>
       <c r="I118">
-        <v>9.699999999999999</v>
+        <v>34.07</v>
       </c>
       <c r="J118" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K118">
-        <v>9.24</v>
+        <v>172.65</v>
       </c>
       <c r="L118">
-        <v>430.95</v>
+        <v>1180.14</v>
       </c>
       <c r="M118">
-        <v>11.27</v>
+        <v>39.15</v>
       </c>
       <c r="N118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O118">
-        <v>6.19</v>
+        <v>5.49</v>
       </c>
       <c r="P118">
-        <v>331.88</v>
+        <v>277.62</v>
       </c>
       <c r="Q118">
-        <v>11.21</v>
+        <v>12.38</v>
       </c>
       <c r="R118" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S118">
-        <v>4.53</v>
+        <v>7.29</v>
       </c>
       <c r="T118">
-        <v>144.56</v>
+        <v>236.11</v>
       </c>
       <c r="U118">
-        <v>10.61</v>
+        <v>11.57</v>
       </c>
       <c r="V118" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -6942,25 +6966,25 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="I119">
-        <v>5.989960159362551</v>
+        <v>31.77555555555556</v>
       </c>
       <c r="J119" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M119">
-        <v>7.670215439856372</v>
+        <v>36.25958333333333</v>
       </c>
       <c r="N119" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q119">
-        <v>7.280578265204388</v>
+        <v>8.735183673469388</v>
       </c>
       <c r="R119" t="s">
         <v>122</v>
       </c>
       <c r="U119">
-        <v>6.939218106995884</v>
+        <v>7.812520325203252</v>
       </c>
       <c r="V119" t="s">
         <v>122</v>
@@ -6988,31 +7012,31 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="J120" t="s">
         <v>122</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>33.53</v>
       </c>
       <c r="M120">
-        <v>1.98</v>
+        <v>2.55</v>
       </c>
       <c r="N120" t="s">
         <v>122</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>22.25</v>
       </c>
       <c r="Q120">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="R120" t="s">
         <v>122</v>
@@ -7024,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="U120">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="V120" t="s">
         <v>122</v>
@@ -7044,37 +7068,37 @@
         <v>114</v>
       </c>
       <c r="G121">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H121">
-        <v>36.52</v>
+        <v>36.54</v>
       </c>
       <c r="I121">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="J121" t="s">
         <v>122</v>
       </c>
       <c r="K121">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="L121">
-        <v>35.32</v>
+        <v>34.2</v>
       </c>
       <c r="M121">
-        <v>1.13</v>
+        <v>2.91</v>
       </c>
       <c r="N121" t="s">
         <v>122</v>
       </c>
       <c r="O121">
-        <v>0.61</v>
+        <v>0.03</v>
       </c>
       <c r="P121">
-        <v>38.69</v>
+        <v>22.73</v>
       </c>
       <c r="Q121">
-        <v>8.66</v>
+        <v>0.88</v>
       </c>
       <c r="R121" t="s">
         <v>122</v>
@@ -7083,10 +7107,10 @@
         <v>0.06</v>
       </c>
       <c r="T121">
-        <v>13.46</v>
+        <v>13.4</v>
       </c>
       <c r="U121">
-        <v>5.03</v>
+        <v>0.97</v>
       </c>
       <c r="V121" t="s">
         <v>122</v>
@@ -7102,25 +7126,25 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="I122">
-        <v>1.696507936507937</v>
+        <v>2.009206349206349</v>
       </c>
       <c r="J122" t="s">
         <v>122</v>
       </c>
       <c r="M122">
-        <v>1.601363636363637</v>
+        <v>2.710363636363636</v>
       </c>
       <c r="N122" t="s">
         <v>122</v>
       </c>
       <c r="Q122">
-        <v>4.802598870056497</v>
+        <v>1.325084745762712</v>
       </c>
       <c r="R122" t="s">
         <v>122</v>
       </c>
       <c r="U122">
-        <v>3.296666666666667</v>
+        <v>1.275454545454545</v>
       </c>
       <c r="V122" t="s">
         <v>122</v>
@@ -7136,25 +7160,25 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="I123">
-        <v>4.695977011494252</v>
+        <v>22.69448757763975</v>
       </c>
       <c r="J123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M123">
-        <v>6.10419661016949</v>
+        <v>28.100506592644</v>
       </c>
       <c r="N123" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q123">
-        <v>7.82571208622017</v>
+        <v>6.930007836990597</v>
       </c>
       <c r="R123" t="s">
         <v>122</v>
       </c>
       <c r="U123">
-        <v>6.609531249999999</v>
+        <v>6.20052795031056</v>
       </c>
       <c r="V123" t="s">
         <v>122</v>
@@ -7187,7 +7211,7 @@
         <v>13.34</v>
       </c>
       <c r="J124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K124">
         <v>3.1</v>
@@ -7199,7 +7223,7 @@
         <v>12.46</v>
       </c>
       <c r="N124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O124">
         <v>1.69</v>
@@ -7211,7 +7235,7 @@
         <v>12.01</v>
       </c>
       <c r="R124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S124">
         <v>1.57</v>
@@ -7223,7 +7247,7 @@
         <v>12.03</v>
       </c>
       <c r="V124" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -7249,7 +7273,7 @@
         <v>11.15</v>
       </c>
       <c r="J125" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K125">
         <v>3.1</v>
@@ -7301,25 +7325,25 @@
         <v>12.69439306358382</v>
       </c>
       <c r="J126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M126">
         <v>11.70088235294118</v>
       </c>
       <c r="N126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q126">
         <v>11.19571428571429</v>
       </c>
       <c r="R126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U126">
         <v>11.02333333333333</v>
       </c>
       <c r="V126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -7385,7 +7409,7 @@
         <v>12.15</v>
       </c>
       <c r="J128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K128">
         <v>0.24</v>
@@ -7397,7 +7421,7 @@
         <v>11.63</v>
       </c>
       <c r="N128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O128">
         <v>0.13</v>
@@ -7409,7 +7433,7 @@
         <v>11.81</v>
       </c>
       <c r="R128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S128">
         <v>0.12</v>
@@ -7421,7 +7445,7 @@
         <v>11.16</v>
       </c>
       <c r="V128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -7434,9 +7458,7 @@
       <c r="E129" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F129" s="1"/>
       <c r="G129">
         <v>0.33</v>
       </c>
@@ -7475,25 +7497,25 @@
         <v>12.15</v>
       </c>
       <c r="J130" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M130">
         <v>11.63</v>
       </c>
       <c r="N130" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q130">
         <v>11.81</v>
       </c>
       <c r="R130" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U130">
         <v>11.16</v>
       </c>
       <c r="V130" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -7570,9 +7592,7 @@
       <c r="E132" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="F132" s="1"/>
       <c r="G132">
         <v>10.63</v>
       </c>
@@ -7583,7 +7603,7 @@
         <v>14.32</v>
       </c>
       <c r="J132" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K132">
         <v>3.54</v>
@@ -7595,7 +7615,7 @@
         <v>13.02</v>
       </c>
       <c r="N132" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O132">
         <v>0.76</v>
@@ -7607,7 +7627,7 @@
         <v>12.02</v>
       </c>
       <c r="R132" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S132">
         <v>0.66</v>
@@ -7619,7 +7639,7 @@
         <v>11.91</v>
       </c>
       <c r="V132" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -7635,25 +7655,25 @@
         <v>12.95055555555556</v>
       </c>
       <c r="J133" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M133">
         <v>11.55221374045801</v>
       </c>
       <c r="N133" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q133">
         <v>10.39230769230769</v>
       </c>
       <c r="R133" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U133">
         <v>10.33666666666667</v>
       </c>
       <c r="V133" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -7669,25 +7689,25 @@
         <v>12.80788177339902</v>
       </c>
       <c r="J134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M134">
         <v>11.61791836734694</v>
       </c>
       <c r="N134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q134">
         <v>10.79448979591837</v>
       </c>
       <c r="R134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U134">
         <v>10.65105263157895</v>
       </c>
       <c r="V134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -7708,49 +7728,49 @@
         <v>116</v>
       </c>
       <c r="G135">
-        <v>2.32</v>
+        <v>2.02</v>
       </c>
       <c r="H135">
-        <v>98.05</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="I135">
-        <v>7.13</v>
+        <v>7.43</v>
       </c>
       <c r="J135" t="s">
         <v>122</v>
       </c>
       <c r="K135">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="L135">
-        <v>93.92</v>
+        <v>92.92</v>
       </c>
       <c r="M135">
-        <v>6.81</v>
+        <v>7.09</v>
       </c>
       <c r="N135" t="s">
         <v>122</v>
       </c>
       <c r="O135">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="P135">
-        <v>91.5</v>
+        <v>89.27</v>
       </c>
       <c r="Q135">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="R135" t="s">
         <v>122</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T135">
-        <v>77.91</v>
+        <v>76.09</v>
       </c>
       <c r="U135">
-        <v>6.77</v>
+        <v>7.09</v>
       </c>
       <c r="V135" t="s">
         <v>122</v>
@@ -7766,25 +7786,25 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="I136">
-        <v>7.13</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="J136" t="s">
         <v>122</v>
       </c>
       <c r="M136">
-        <v>6.81</v>
+        <v>7.09</v>
       </c>
       <c r="N136" t="s">
         <v>122</v>
       </c>
       <c r="Q136">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="R136" t="s">
         <v>122</v>
       </c>
       <c r="U136">
-        <v>6.77</v>
+        <v>7.09</v>
       </c>
       <c r="V136" t="s">
         <v>122</v>
@@ -7806,49 +7826,49 @@
         <v>116</v>
       </c>
       <c r="G137">
-        <v>0.19</v>
+        <v>1.19</v>
       </c>
       <c r="H137">
-        <v>57.16</v>
+        <v>87.39</v>
       </c>
       <c r="I137">
-        <v>9.619999999999999</v>
+        <v>10.42</v>
       </c>
       <c r="J137" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K137">
-        <v>0.21</v>
+        <v>0.97</v>
       </c>
       <c r="L137">
-        <v>60.79</v>
+        <v>78.5</v>
       </c>
       <c r="M137">
-        <v>9.66</v>
+        <v>10.15</v>
       </c>
       <c r="N137" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O137">
-        <v>0.18</v>
+        <v>0.93</v>
       </c>
       <c r="P137">
-        <v>62.36</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="Q137">
-        <v>9.609999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="R137" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S137">
-        <v>0.12</v>
+        <v>0.66</v>
       </c>
       <c r="T137">
-        <v>45.32</v>
+        <v>55.53</v>
       </c>
       <c r="U137">
-        <v>9.619999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="V137" t="s">
         <v>122</v>
@@ -7864,25 +7884,25 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="I138">
-        <v>9.619999999999999</v>
+        <v>10.42</v>
       </c>
       <c r="J138" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M138">
-        <v>9.66</v>
+        <v>10.15</v>
       </c>
       <c r="N138" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q138">
-        <v>9.609999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="R138" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="U138">
-        <v>9.619999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="V138" t="s">
         <v>122</v>
@@ -7904,49 +7924,49 @@
         <v>116</v>
       </c>
       <c r="G139">
-        <v>8.1</v>
+        <v>8.33</v>
       </c>
       <c r="H139">
-        <v>151.17</v>
+        <v>151.97</v>
       </c>
       <c r="I139">
-        <v>8.84</v>
+        <v>9.15</v>
       </c>
       <c r="J139" t="s">
         <v>122</v>
       </c>
       <c r="K139">
-        <v>12.19</v>
+        <v>12.35</v>
       </c>
       <c r="L139">
-        <v>149.46</v>
+        <v>148.69</v>
       </c>
       <c r="M139">
-        <v>9.109999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="N139" t="s">
         <v>122</v>
       </c>
       <c r="O139">
-        <v>11.3</v>
+        <v>11.43</v>
       </c>
       <c r="P139">
-        <v>157.88</v>
+        <v>161.11</v>
       </c>
       <c r="Q139">
-        <v>8.92</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R139" t="s">
         <v>122</v>
       </c>
       <c r="S139">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="T139">
-        <v>121.62</v>
+        <v>121.78</v>
       </c>
       <c r="U139">
-        <v>8.76</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="V139" t="s">
         <v>122</v>
@@ -7962,25 +7982,25 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="I140">
-        <v>8.84</v>
+        <v>9.15</v>
       </c>
       <c r="J140" t="s">
         <v>122</v>
       </c>
       <c r="M140">
-        <v>9.109999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="N140" t="s">
         <v>122</v>
       </c>
       <c r="Q140">
-        <v>8.92</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R140" t="s">
         <v>122</v>
       </c>
       <c r="U140">
-        <v>8.76</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="V140" t="s">
         <v>122</v>
@@ -7996,25 +8016,25 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="I141">
-        <v>8.614032258064515</v>
+        <v>9.423765182186234</v>
       </c>
       <c r="J141" t="s">
         <v>122</v>
       </c>
       <c r="M141">
-        <v>8.845560344827586</v>
+        <v>9.378775510204083</v>
       </c>
       <c r="N141" t="s">
         <v>122</v>
       </c>
       <c r="Q141">
-        <v>8.672083333333333</v>
+        <v>9.256715328467152</v>
       </c>
       <c r="R141" t="s">
         <v>122</v>
       </c>
       <c r="U141">
-        <v>8.563035714285713</v>
+        <v>9.070142857142857</v>
       </c>
       <c r="V141" t="s">
         <v>122</v>
@@ -8038,49 +8058,49 @@
         <v>93</v>
       </c>
       <c r="G142">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="H142">
-        <v>52.25</v>
+        <v>52.71</v>
       </c>
       <c r="I142">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="J142" t="s">
         <v>122</v>
       </c>
       <c r="K142">
-        <v>19.93</v>
+        <v>0.12</v>
       </c>
       <c r="L142">
-        <v>146.33</v>
+        <v>46.86</v>
       </c>
       <c r="M142">
-        <v>5.98</v>
+        <v>1.79</v>
       </c>
       <c r="N142" t="s">
         <v>122</v>
       </c>
       <c r="O142">
-        <v>11.61</v>
+        <v>0.04</v>
       </c>
       <c r="P142">
-        <v>121.01</v>
+        <v>27.33</v>
       </c>
       <c r="Q142">
-        <v>4.44</v>
+        <v>1.76</v>
       </c>
       <c r="R142" t="s">
         <v>122</v>
       </c>
       <c r="S142">
-        <v>16.42</v>
+        <v>0.26</v>
       </c>
       <c r="T142">
-        <v>75.34</v>
+        <v>18.41</v>
       </c>
       <c r="U142">
-        <v>5.3</v>
+        <v>1.79</v>
       </c>
       <c r="V142" t="s">
         <v>122</v>
@@ -8100,52 +8120,52 @@
         <v>117</v>
       </c>
       <c r="G143">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="H143">
-        <v>101.05</v>
+        <v>92.06</v>
       </c>
       <c r="I143">
-        <v>3.54</v>
+        <v>4.1</v>
       </c>
       <c r="J143" t="s">
         <v>122</v>
       </c>
       <c r="K143">
-        <v>28.26</v>
+        <v>0.67</v>
       </c>
       <c r="L143">
-        <v>184.97</v>
+        <v>86.8</v>
       </c>
       <c r="M143">
-        <v>40.75</v>
+        <v>4.06</v>
       </c>
       <c r="N143" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O143">
-        <v>16.95</v>
+        <v>0.43</v>
       </c>
       <c r="P143">
-        <v>158.47</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="Q143">
-        <v>27.38</v>
+        <v>3.32</v>
       </c>
       <c r="R143" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S143">
-        <v>22.83</v>
+        <v>0.8</v>
       </c>
       <c r="T143">
-        <v>111.74</v>
+        <v>63.53</v>
       </c>
       <c r="U143">
-        <v>35.39</v>
+        <v>3.78</v>
       </c>
       <c r="V143" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -8158,28 +8178,28 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="I144">
-        <v>2.372014519056261</v>
+        <v>2.765792349726776</v>
       </c>
       <c r="J144" t="s">
         <v>122</v>
       </c>
       <c r="M144">
-        <v>17.29874468085107</v>
+        <v>2.761055555555555</v>
       </c>
       <c r="N144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q144">
-        <v>12.10186878727634</v>
+        <v>2.473308550185873</v>
       </c>
       <c r="R144" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U144">
-        <v>15.49177419354839</v>
+        <v>2.674444444444444</v>
       </c>
       <c r="V144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -8204,46 +8224,46 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>122</v>
       </c>
       <c r="K145">
-        <v>15.45</v>
+        <v>0.02</v>
       </c>
       <c r="L145">
-        <v>199.79</v>
+        <v>4.19</v>
       </c>
       <c r="M145">
-        <v>20.82</v>
+        <v>2.2</v>
       </c>
       <c r="N145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O145">
-        <v>7.08</v>
+        <v>0</v>
       </c>
       <c r="P145">
-        <v>114.22</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>14.43</v>
+        <v>1.86</v>
       </c>
       <c r="R145" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S145">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="T145">
-        <v>42.48</v>
+        <v>0</v>
       </c>
       <c r="U145">
-        <v>14.52</v>
+        <v>2.02</v>
       </c>
       <c r="V145" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:22">
@@ -8266,43 +8286,43 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="J146" t="s">
         <v>122</v>
       </c>
       <c r="K146">
-        <v>15.45</v>
+        <v>0.02</v>
       </c>
       <c r="L146">
-        <v>199.79</v>
+        <v>4.19</v>
       </c>
       <c r="M146">
-        <v>5.07</v>
+        <v>1.95</v>
       </c>
       <c r="N146" t="s">
         <v>122</v>
       </c>
       <c r="O146">
-        <v>7.08</v>
+        <v>0</v>
       </c>
       <c r="P146">
-        <v>114.22</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>3.58</v>
+        <v>1.82</v>
       </c>
       <c r="R146" t="s">
         <v>122</v>
       </c>
       <c r="S146">
-        <v>5.86</v>
+        <v>0</v>
       </c>
       <c r="T146">
-        <v>42.48</v>
+        <v>0</v>
       </c>
       <c r="U146">
-        <v>3.18</v>
+        <v>1.63</v>
       </c>
       <c r="V146" t="s">
         <v>122</v>
@@ -8318,25 +8338,25 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="I147">
-        <v>1.919657534246575</v>
+        <v>2.003835616438356</v>
       </c>
       <c r="J147" t="s">
         <v>122</v>
       </c>
       <c r="M147">
-        <v>13.3825</v>
+        <v>2.118508287292818</v>
       </c>
       <c r="N147" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q147">
-        <v>9.359285714285715</v>
+        <v>1.84694045174538</v>
       </c>
       <c r="R147" t="s">
         <v>122</v>
       </c>
       <c r="U147">
-        <v>9.128852459016393</v>
+        <v>1.892131147540983</v>
       </c>
       <c r="V147" t="s">
         <v>122</v>
@@ -8352,28 +8372,28 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="I148">
-        <v>2.139259911894273</v>
+        <v>2.373045013239188</v>
       </c>
       <c r="J148" t="s">
         <v>122</v>
       </c>
       <c r="M148">
-        <v>15.20491089108911</v>
+        <v>2.438891966759003</v>
       </c>
       <c r="N148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q148">
-        <v>10.74852970795569</v>
+        <v>2.17570731707317</v>
       </c>
       <c r="R148" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U148">
-        <v>12.33617886178862</v>
+        <v>2.303073929961089</v>
       </c>
       <c r="V148" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:22">
@@ -8394,52 +8414,52 @@
         <v>97</v>
       </c>
       <c r="G149">
-        <v>5.9</v>
+        <v>30.72</v>
       </c>
       <c r="H149">
-        <v>107.02</v>
+        <v>218.74</v>
       </c>
       <c r="I149">
-        <v>8.82</v>
+        <v>13.72</v>
       </c>
       <c r="J149" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K149">
-        <v>7.07</v>
+        <v>31.34</v>
       </c>
       <c r="L149">
-        <v>125.23</v>
+        <v>249.84</v>
       </c>
       <c r="M149">
-        <v>9.539999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="N149" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O149">
-        <v>6.2</v>
+        <v>25.4</v>
       </c>
       <c r="P149">
-        <v>116.38</v>
+        <v>203.11</v>
       </c>
       <c r="Q149">
-        <v>9.609999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="R149" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S149">
-        <v>5.05</v>
+        <v>26.08</v>
       </c>
       <c r="T149">
-        <v>84.25</v>
+        <v>158.25</v>
       </c>
       <c r="U149">
-        <v>6.6</v>
+        <v>12.85</v>
       </c>
       <c r="V149" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -8456,52 +8476,52 @@
         <v>96</v>
       </c>
       <c r="G150">
-        <v>5.95</v>
+        <v>30.9</v>
       </c>
       <c r="H150">
-        <v>107.1</v>
+        <v>218.82</v>
       </c>
       <c r="I150">
-        <v>7.99</v>
+        <v>13.33</v>
       </c>
       <c r="J150" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K150">
-        <v>7.14</v>
+        <v>31.56</v>
       </c>
       <c r="L150">
-        <v>125.31</v>
+        <v>249.93</v>
       </c>
       <c r="M150">
-        <v>8.41</v>
+        <v>13.92</v>
       </c>
       <c r="N150" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O150">
-        <v>6.25</v>
+        <v>25.58</v>
       </c>
       <c r="P150">
-        <v>116.46</v>
+        <v>203.2</v>
       </c>
       <c r="Q150">
-        <v>8.66</v>
+        <v>12.38</v>
       </c>
       <c r="R150" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S150">
-        <v>5.2</v>
+        <v>26.28</v>
       </c>
       <c r="T150">
-        <v>84.33</v>
+        <v>158.33</v>
       </c>
       <c r="U150">
-        <v>7.9</v>
+        <v>12.08</v>
       </c>
       <c r="V150" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -8514,28 +8534,28 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="I151">
-        <v>8.300347826086956</v>
+        <v>13.4591875</v>
       </c>
       <c r="J151" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M151">
-        <v>8.81609375</v>
+        <v>13.87897763578275</v>
       </c>
       <c r="N151" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q151">
-        <v>9.013097345132744</v>
+        <v>12.27912457912458</v>
       </c>
       <c r="R151" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="U151">
-        <v>7.500000000000001</v>
+        <v>12.34693333333333</v>
       </c>
       <c r="V151" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152" spans="1:22">
@@ -8560,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="J152" t="s">
         <v>122</v>
@@ -8572,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="N152" t="s">
         <v>122</v>
@@ -8584,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="R152" t="s">
         <v>122</v>
@@ -8596,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="U152">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="V152" t="s">
         <v>122</v>
@@ -8612,25 +8632,25 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="I153">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="J153" t="s">
         <v>122</v>
       </c>
       <c r="M153">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="N153" t="s">
         <v>122</v>
       </c>
       <c r="Q153">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="R153" t="s">
         <v>122</v>
       </c>
       <c r="U153">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
       <c r="V153" t="s">
         <v>122</v>
@@ -8658,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="J154" t="s">
         <v>122</v>
@@ -8670,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="N154" t="s">
         <v>122</v>
@@ -8682,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>0.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R154" t="s">
         <v>122</v>
@@ -8694,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="U154">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="V154" t="s">
         <v>122</v>
@@ -8710,25 +8730,25 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="I155">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="J155" t="s">
         <v>122</v>
       </c>
       <c r="M155">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="N155" t="s">
         <v>122</v>
       </c>
       <c r="Q155">
-        <v>0.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R155" t="s">
         <v>122</v>
       </c>
       <c r="U155">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="V155" t="s">
         <v>122</v>
@@ -8744,25 +8764,25 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="I156">
-        <v>3.8963671875</v>
+        <v>9.540629067245117</v>
       </c>
       <c r="J156" t="s">
         <v>122</v>
       </c>
       <c r="M156">
-        <v>3.772848101265823</v>
+        <v>8.925429141716567</v>
       </c>
       <c r="N156" t="s">
         <v>122</v>
       </c>
       <c r="Q156">
-        <v>3.659075342465753</v>
+        <v>7.902878151260505</v>
       </c>
       <c r="R156" t="s">
         <v>122</v>
       </c>
       <c r="U156">
-        <v>3.131212121212121</v>
+        <v>8.264086956521737</v>
       </c>
       <c r="V156" t="s">
         <v>122</v>
@@ -8786,49 +8806,49 @@
         <v>99</v>
       </c>
       <c r="G157">
-        <v>0.5</v>
+        <v>1.53</v>
       </c>
       <c r="H157">
-        <v>64.20999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="I157">
-        <v>7.86</v>
+        <v>8.24</v>
       </c>
       <c r="J157" t="s">
         <v>122</v>
       </c>
       <c r="K157">
-        <v>0.52</v>
+        <v>1.37</v>
       </c>
       <c r="L157">
-        <v>58.38</v>
+        <v>83.3</v>
       </c>
       <c r="M157">
-        <v>7.76</v>
+        <v>7.97</v>
       </c>
       <c r="N157" t="s">
         <v>122</v>
       </c>
       <c r="O157">
-        <v>0.46</v>
+        <v>1.25</v>
       </c>
       <c r="P157">
-        <v>59.66</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="Q157">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="R157" t="s">
         <v>122</v>
       </c>
       <c r="S157">
-        <v>0.39</v>
+        <v>1.35</v>
       </c>
       <c r="T157">
-        <v>34.94</v>
+        <v>58.14</v>
       </c>
       <c r="U157">
-        <v>7.72</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="V157" t="s">
         <v>122</v>
@@ -8848,49 +8868,49 @@
         <v>80</v>
       </c>
       <c r="G158">
-        <v>0.28</v>
+        <v>0.97</v>
       </c>
       <c r="H158">
-        <v>67.53</v>
+        <v>81.14</v>
       </c>
       <c r="I158">
-        <v>7.61</v>
+        <v>8.26</v>
       </c>
       <c r="J158" t="s">
         <v>122</v>
       </c>
       <c r="K158">
-        <v>0.23</v>
+        <v>1.01</v>
       </c>
       <c r="L158">
-        <v>62.71</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="M158">
-        <v>7.54</v>
+        <v>8.33</v>
       </c>
       <c r="N158" t="s">
         <v>122</v>
       </c>
       <c r="O158">
-        <v>0.18</v>
+        <v>0.88</v>
       </c>
       <c r="P158">
-        <v>53.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="Q158">
-        <v>7.44</v>
+        <v>8.23</v>
       </c>
       <c r="R158" t="s">
         <v>122</v>
       </c>
       <c r="S158">
-        <v>0.19</v>
+        <v>0.85</v>
       </c>
       <c r="T158">
-        <v>28.7</v>
+        <v>56.44</v>
       </c>
       <c r="U158">
-        <v>7.09</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="V158" t="s">
         <v>122</v>
@@ -8906,25 +8926,25 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="I159">
-        <v>7.717142857142858</v>
+        <v>8.251052631578947</v>
       </c>
       <c r="J159" t="s">
         <v>122</v>
       </c>
       <c r="M159">
-        <v>7.647441860465117</v>
+        <v>8.169285714285714</v>
       </c>
       <c r="N159" t="s">
         <v>122</v>
       </c>
       <c r="Q159">
-        <v>7.661944444444445</v>
+        <v>8.083679245283019</v>
       </c>
       <c r="R159" t="s">
         <v>122</v>
       </c>
       <c r="U159">
-        <v>7.3</v>
+        <v>8.678800000000001</v>
       </c>
       <c r="V159" t="s">
         <v>122</v>
@@ -8946,13 +8966,13 @@
         <v>80</v>
       </c>
       <c r="G160">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>14.28</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="J160" t="s">
         <v>122</v>
@@ -8964,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N160" t="s">
         <v>122</v>
@@ -8976,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R160" t="s">
         <v>122</v>
@@ -8988,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="U160">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="V160" t="s">
         <v>122</v>
@@ -9004,25 +9024,25 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="I161">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="J161" t="s">
         <v>122</v>
       </c>
       <c r="M161">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N161" t="s">
         <v>122</v>
       </c>
       <c r="Q161">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R161" t="s">
         <v>122</v>
       </c>
       <c r="U161">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="V161" t="s">
         <v>122</v>
@@ -9050,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="I162">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="J162" t="s">
         <v>122</v>
@@ -9062,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="N162" t="s">
         <v>122</v>
@@ -9074,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="R162" t="s">
         <v>122</v>
@@ -9083,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="T162">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="U162">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="V162" t="s">
         <v>122</v>
@@ -9102,25 +9122,25 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="I163">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="J163" t="s">
         <v>122</v>
       </c>
       <c r="M163">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="N163" t="s">
         <v>122</v>
       </c>
       <c r="Q163">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="R163" t="s">
         <v>122</v>
       </c>
       <c r="U163">
-        <v>0.32</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="V163" t="s">
         <v>122</v>
@@ -9136,25 +9156,25 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="I164">
-        <v>1.532626582278481</v>
+        <v>2.319160739687056</v>
       </c>
       <c r="J164" t="s">
         <v>122</v>
       </c>
       <c r="M164">
-        <v>1.512176560121766</v>
+        <v>2.225824175824176</v>
       </c>
       <c r="N164" t="s">
         <v>122</v>
       </c>
       <c r="Q164">
-        <v>1.411869639794168</v>
+        <v>2.219771341463415</v>
       </c>
       <c r="R164" t="s">
         <v>122</v>
       </c>
       <c r="U164">
-        <v>1.350540540540541</v>
+        <v>2.518734939759036</v>
       </c>
       <c r="V164" t="s">
         <v>122</v>
@@ -9184,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="J165" t="s">
         <v>122</v>
@@ -9196,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N165" t="s">
         <v>122</v>
@@ -9236,13 +9256,13 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="I166">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="J166" t="s">
         <v>122</v>
       </c>
       <c r="M166">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N166" t="s">
         <v>122</v>
@@ -9276,49 +9296,49 @@
         <v>83</v>
       </c>
       <c r="G167">
-        <v>4.01</v>
+        <v>6.57</v>
       </c>
       <c r="H167">
-        <v>95.84999999999999</v>
+        <v>128.25</v>
       </c>
       <c r="I167">
-        <v>8.369999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="J167" t="s">
         <v>122</v>
       </c>
       <c r="K167">
-        <v>4.02</v>
+        <v>6.3</v>
       </c>
       <c r="L167">
-        <v>103.59</v>
+        <v>113.15</v>
       </c>
       <c r="M167">
-        <v>8.550000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="N167" t="s">
         <v>122</v>
       </c>
       <c r="O167">
-        <v>3.93</v>
+        <v>6.01</v>
       </c>
       <c r="P167">
-        <v>102.99</v>
+        <v>107.51</v>
       </c>
       <c r="Q167">
-        <v>8.539999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="R167" t="s">
         <v>122</v>
       </c>
       <c r="S167">
-        <v>3.7</v>
+        <v>4.78</v>
       </c>
       <c r="T167">
-        <v>77.20999999999999</v>
+        <v>80.67</v>
       </c>
       <c r="U167">
-        <v>7</v>
+        <v>7.11</v>
       </c>
       <c r="V167" t="s">
         <v>122</v>
@@ -9338,49 +9358,49 @@
         <v>82</v>
       </c>
       <c r="G168">
-        <v>3.87</v>
+        <v>6.34</v>
       </c>
       <c r="H168">
-        <v>94.48</v>
+        <v>126.88</v>
       </c>
       <c r="I168">
-        <v>9.94</v>
+        <v>10.71</v>
       </c>
       <c r="J168" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K168">
-        <v>3.8</v>
+        <v>6.05</v>
       </c>
       <c r="L168">
-        <v>102.22</v>
+        <v>111.78</v>
       </c>
       <c r="M168">
-        <v>9.42</v>
+        <v>9.74</v>
       </c>
       <c r="N168" t="s">
         <v>122</v>
       </c>
       <c r="O168">
-        <v>3.86</v>
+        <v>5.81</v>
       </c>
       <c r="P168">
-        <v>101.63</v>
+        <v>106.14</v>
       </c>
       <c r="Q168">
-        <v>9.17</v>
+        <v>9.67</v>
       </c>
       <c r="R168" t="s">
         <v>122</v>
       </c>
       <c r="S168">
-        <v>3.59</v>
+        <v>4.53</v>
       </c>
       <c r="T168">
-        <v>75.84999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="U168">
-        <v>8.619999999999999</v>
+        <v>7.74</v>
       </c>
       <c r="V168" t="s">
         <v>122</v>
@@ -9396,25 +9416,25 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="I169">
-        <v>9.115084745762712</v>
+        <v>10.10310344827586</v>
       </c>
       <c r="J169" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M169">
-        <v>9.007118644067797</v>
+        <v>9.396363636363636</v>
       </c>
       <c r="N169" t="s">
         <v>122</v>
       </c>
       <c r="Q169">
-        <v>8.865862068965516</v>
+        <v>9.115</v>
       </c>
       <c r="R169" t="s">
         <v>122</v>
       </c>
       <c r="U169">
-        <v>7.76235294117647</v>
+        <v>7.425000000000001</v>
       </c>
       <c r="V169" t="s">
         <v>122</v>
@@ -9442,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="I170">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="J170" t="s">
         <v>122</v>
@@ -9454,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="N170" t="s">
         <v>122</v>
@@ -9466,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="R170" t="s">
         <v>122</v>
@@ -9478,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="U170">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="V170" t="s">
         <v>122</v>
@@ -9494,25 +9514,25 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="I171">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="J171" t="s">
         <v>122</v>
       </c>
       <c r="M171">
-        <v>0.8100000000000001</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="N171" t="s">
         <v>122</v>
       </c>
       <c r="Q171">
-        <v>0.82</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="R171" t="s">
         <v>122</v>
       </c>
       <c r="U171">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="V171" t="s">
         <v>122</v>
@@ -9528,25 +9548,25 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="I172">
-        <v>1.646201469045121</v>
+        <v>1.969694189602447</v>
       </c>
       <c r="J172" t="s">
         <v>122</v>
       </c>
       <c r="M172">
-        <v>1.566806818181818</v>
+        <v>1.871584158415841</v>
       </c>
       <c r="N172" t="s">
         <v>122</v>
       </c>
       <c r="Q172">
-        <v>1.477924970691676</v>
+        <v>1.806553672316384</v>
       </c>
       <c r="R172" t="s">
         <v>122</v>
       </c>
       <c r="U172">
-        <v>1.489275362318841</v>
+        <v>1.575714285714286</v>
       </c>
       <c r="V172" t="s">
         <v>122</v>
@@ -9573,10 +9593,10 @@
         <v>0.87</v>
       </c>
       <c r="H173">
-        <v>110.82</v>
+        <v>110.86</v>
       </c>
       <c r="I173">
-        <v>8.59</v>
+        <v>8.58</v>
       </c>
       <c r="J173" t="s">
         <v>122</v>
@@ -9629,37 +9649,37 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>5.69</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>12.19</v>
+        <v>11.9</v>
       </c>
       <c r="J174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>5.48</v>
+        <v>6.08</v>
       </c>
       <c r="M174">
-        <v>12.19</v>
+        <v>12.6</v>
       </c>
       <c r="N174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O174">
         <v>0</v>
       </c>
       <c r="P174">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="Q174">
-        <v>11.66</v>
+        <v>11.42</v>
       </c>
       <c r="R174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S174">
         <v>0</v>
@@ -9671,7 +9691,7 @@
         <v>11.57</v>
       </c>
       <c r="V174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:22">
@@ -9691,49 +9711,49 @@
         <v>0.01</v>
       </c>
       <c r="H175">
-        <v>10.49</v>
+        <v>10.52</v>
       </c>
       <c r="I175">
-        <v>9.779999999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="J175" t="s">
         <v>122</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L175">
-        <v>11.25</v>
+        <v>7.82</v>
       </c>
       <c r="M175">
-        <v>8.43</v>
+        <v>9.85</v>
       </c>
       <c r="N175" t="s">
         <v>122</v>
       </c>
       <c r="O175">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P175">
-        <v>6.83</v>
+        <v>4.94</v>
       </c>
       <c r="Q175">
-        <v>11.99</v>
+        <v>10.53</v>
       </c>
       <c r="R175" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S175">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T175">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U175">
-        <v>10.9</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="V175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -9746,28 +9766,28 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="I176">
-        <v>10.146</v>
+        <v>10.06</v>
       </c>
       <c r="J176" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M176">
-        <v>9.663333333333332</v>
+        <v>10.27333333333333</v>
       </c>
       <c r="N176" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q176">
-        <v>10.57666666666667</v>
+        <v>10.01</v>
       </c>
       <c r="R176" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U176">
-        <v>10.9</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="V176" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:22">
@@ -9786,37 +9806,37 @@
         <v>120</v>
       </c>
       <c r="G177">
+        <v>0.03</v>
+      </c>
+      <c r="H177">
+        <v>33.35</v>
+      </c>
+      <c r="I177">
+        <v>0.95</v>
+      </c>
+      <c r="J177" t="s">
+        <v>122</v>
+      </c>
+      <c r="K177">
         <v>0.05</v>
       </c>
-      <c r="H177">
-        <v>37.95</v>
-      </c>
-      <c r="I177">
-        <v>0.96</v>
-      </c>
-      <c r="J177" t="s">
-        <v>122</v>
-      </c>
-      <c r="K177">
-        <v>0.02</v>
-      </c>
       <c r="L177">
-        <v>34.05</v>
+        <v>45.57</v>
       </c>
       <c r="M177">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N177" t="s">
         <v>122</v>
       </c>
       <c r="O177">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P177">
-        <v>14.02</v>
+        <v>16.82</v>
       </c>
       <c r="Q177">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="R177" t="s">
         <v>122</v>
@@ -9825,10 +9845,10 @@
         <v>0.02</v>
       </c>
       <c r="T177">
-        <v>15.69</v>
+        <v>7.93</v>
       </c>
       <c r="U177">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="V177" t="s">
         <v>122</v>
@@ -9848,49 +9868,49 @@
         <v>118</v>
       </c>
       <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>7.3</v>
+      </c>
+      <c r="I178">
+        <v>1.28</v>
+      </c>
+      <c r="J178" t="s">
+        <v>122</v>
+      </c>
+      <c r="K178">
         <v>0.02</v>
       </c>
-      <c r="H178">
-        <v>15.52</v>
-      </c>
-      <c r="I178">
-        <v>1.21</v>
-      </c>
-      <c r="J178" t="s">
-        <v>122</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
       <c r="L178">
-        <v>7.25</v>
+        <v>22.24</v>
       </c>
       <c r="M178">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="N178" t="s">
         <v>122</v>
       </c>
       <c r="O178">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P178">
-        <v>0</v>
+        <v>15.03</v>
       </c>
       <c r="Q178">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="R178" t="s">
         <v>122</v>
       </c>
       <c r="S178">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T178">
-        <v>0</v>
+        <v>7.27</v>
       </c>
       <c r="U178">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="V178" t="s">
         <v>122</v>
@@ -9916,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="I179">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="J179" t="s">
         <v>122</v>
@@ -9928,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N179" t="s">
         <v>122</v>
@@ -9940,19 +9960,19 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="R179" t="s">
         <v>122</v>
       </c>
       <c r="S179">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T179">
-        <v>0</v>
+        <v>9.44</v>
       </c>
       <c r="U179">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="V179" t="s">
         <v>122</v>
@@ -9968,25 +9988,25 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="I180">
-        <v>1.088397790055249</v>
+        <v>1.12307901907357</v>
       </c>
       <c r="J180" t="s">
         <v>122</v>
       </c>
       <c r="M180">
-        <v>1.097257617728532</v>
+        <v>1.12633608815427</v>
       </c>
       <c r="N180" t="s">
         <v>122</v>
       </c>
       <c r="Q180">
-        <v>1.058821752265861</v>
+        <v>1.051736526946108</v>
       </c>
       <c r="R180" t="s">
         <v>122</v>
       </c>
       <c r="U180">
-        <v>1.028941176470588</v>
+        <v>1.082619047619048</v>
       </c>
       <c r="V180" t="s">
         <v>122</v>
@@ -10026,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="N181" t="s">
         <v>122</v>
@@ -10038,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="R181" t="s">
         <v>122</v>
@@ -10050,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="U181">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="V181" t="s">
         <v>122</v>
@@ -10148,19 +10168,19 @@
         <v>122</v>
       </c>
       <c r="M184">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="N184" t="s">
         <v>122</v>
       </c>
       <c r="Q184">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="R184" t="s">
         <v>122</v>
       </c>
       <c r="U184">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="V184" t="s">
         <v>122</v>
@@ -10176,25 +10196,25 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="I185">
-        <v>0.9976134453781514</v>
+        <v>1.01815</v>
       </c>
       <c r="J185" t="s">
         <v>122</v>
       </c>
       <c r="M185">
-        <v>0.8967425569176883</v>
+        <v>0.9154450261780104</v>
       </c>
       <c r="N185" t="s">
         <v>122</v>
       </c>
       <c r="Q185">
-        <v>0.8728185328185328</v>
+        <v>0.862552783109405</v>
       </c>
       <c r="R185" t="s">
         <v>122</v>
       </c>
       <c r="U185">
-        <v>0.8924806201550388</v>
+        <v>0.91625</v>
       </c>
       <c r="V185" t="s">
         <v>122</v>
@@ -10218,52 +10238,52 @@
         <v>90</v>
       </c>
       <c r="G186">
-        <v>167.83</v>
+        <v>167.55</v>
       </c>
       <c r="H186">
-        <v>250.45</v>
+        <v>255.51</v>
       </c>
       <c r="I186">
-        <v>30.98</v>
+        <v>30.96</v>
       </c>
       <c r="J186" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K186">
-        <v>172.09</v>
+        <v>168.11</v>
       </c>
       <c r="L186">
-        <v>250.17</v>
+        <v>248.75</v>
       </c>
       <c r="M186">
-        <v>40.26</v>
+        <v>29.48</v>
       </c>
       <c r="N186" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O186">
-        <v>169.96</v>
+        <v>167.5</v>
       </c>
       <c r="P186">
-        <v>257.44</v>
+        <v>256.75</v>
       </c>
       <c r="Q186">
-        <v>34.42</v>
+        <v>29.24</v>
       </c>
       <c r="R186" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S186">
-        <v>171.69</v>
+        <v>168.5</v>
       </c>
       <c r="T186">
-        <v>241.23</v>
+        <v>241.51</v>
       </c>
       <c r="U186">
-        <v>28.68</v>
+        <v>30.06</v>
       </c>
       <c r="V186" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:22">
@@ -10280,52 +10300,52 @@
         <v>93</v>
       </c>
       <c r="G187">
-        <v>165.07</v>
+        <v>164.8</v>
       </c>
       <c r="H187">
-        <v>247.68</v>
+        <v>252.74</v>
       </c>
       <c r="I187">
-        <v>36.54</v>
+        <v>36.22</v>
       </c>
       <c r="J187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K187">
-        <v>169.34</v>
+        <v>165.34</v>
       </c>
       <c r="L187">
-        <v>247.4</v>
+        <v>245.98</v>
       </c>
       <c r="M187">
-        <v>46.62</v>
+        <v>36.29</v>
       </c>
       <c r="N187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O187">
-        <v>167.21</v>
+        <v>164.75</v>
       </c>
       <c r="P187">
-        <v>254.67</v>
+        <v>253.98</v>
       </c>
       <c r="Q187">
-        <v>43.11</v>
+        <v>36.04</v>
       </c>
       <c r="R187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S187">
-        <v>168.94</v>
+        <v>165.71</v>
       </c>
       <c r="T187">
-        <v>238.46</v>
+        <v>238.74</v>
       </c>
       <c r="U187">
-        <v>45.07</v>
+        <v>35.87</v>
       </c>
       <c r="V187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -10338,28 +10358,28 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="I188">
-        <v>36.46902127659575</v>
+        <v>36.1525641025641</v>
       </c>
       <c r="J188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M188">
-        <v>46.52914285714286</v>
+        <v>36.19251533742331</v>
       </c>
       <c r="N188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q188">
-        <v>42.99361607142857</v>
+        <v>35.94225872689938</v>
       </c>
       <c r="R188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U188">
-        <v>44.77200000000001</v>
+        <v>35.72713114754098</v>
       </c>
       <c r="V188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189" spans="1:22">
@@ -10378,52 +10398,52 @@
         <v>94</v>
       </c>
       <c r="G189">
-        <v>6.37</v>
+        <v>6.33</v>
       </c>
       <c r="H189">
-        <v>131.85</v>
+        <v>132.21</v>
       </c>
       <c r="I189">
-        <v>7.61</v>
+        <v>7.6</v>
       </c>
       <c r="J189" t="s">
         <v>122</v>
       </c>
       <c r="K189">
+        <v>4.66</v>
+      </c>
+      <c r="L189">
+        <v>113.56</v>
+      </c>
+      <c r="M189">
+        <v>6.92</v>
+      </c>
+      <c r="N189" t="s">
+        <v>122</v>
+      </c>
+      <c r="O189">
         <v>4.88</v>
       </c>
-      <c r="L189">
-        <v>111.34</v>
-      </c>
-      <c r="M189">
-        <v>7.84</v>
-      </c>
-      <c r="N189" t="s">
-        <v>122</v>
-      </c>
-      <c r="O189">
-        <v>5.86</v>
-      </c>
       <c r="P189">
-        <v>133.63</v>
+        <v>127.94</v>
       </c>
       <c r="Q189">
-        <v>8.539999999999999</v>
+        <v>6.66</v>
       </c>
       <c r="R189" t="s">
         <v>122</v>
       </c>
       <c r="S189">
-        <v>12.44</v>
+        <v>5.74</v>
       </c>
       <c r="T189">
-        <v>124.19</v>
+        <v>125.77</v>
       </c>
       <c r="U189">
-        <v>12.16</v>
+        <v>6.85</v>
       </c>
       <c r="V189" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -10440,52 +10460,52 @@
         <v>90</v>
       </c>
       <c r="G190">
-        <v>6.81</v>
+        <v>6.71</v>
       </c>
       <c r="H190">
-        <v>133.67</v>
+        <v>134.03</v>
       </c>
       <c r="I190">
-        <v>17.49</v>
+        <v>16.06</v>
       </c>
       <c r="J190" t="s">
         <v>123</v>
       </c>
       <c r="K190">
-        <v>5.3</v>
+        <v>4.89</v>
       </c>
       <c r="L190">
-        <v>113.17</v>
+        <v>115.39</v>
       </c>
       <c r="M190">
-        <v>17.99</v>
+        <v>15.61</v>
       </c>
       <c r="N190" t="s">
         <v>123</v>
       </c>
       <c r="O190">
-        <v>6.33</v>
+        <v>5.14</v>
       </c>
       <c r="P190">
-        <v>135.46</v>
+        <v>129.77</v>
       </c>
       <c r="Q190">
-        <v>17.03</v>
+        <v>14.6</v>
       </c>
       <c r="R190" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S190">
-        <v>12.85</v>
+        <v>5.92</v>
       </c>
       <c r="T190">
-        <v>126.47</v>
+        <v>127.21</v>
       </c>
       <c r="U190">
-        <v>21.73</v>
+        <v>12.9</v>
       </c>
       <c r="V190" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -10502,52 +10522,52 @@
         <v>93</v>
       </c>
       <c r="G191">
-        <v>6.81</v>
+        <v>6.71</v>
       </c>
       <c r="H191">
-        <v>133.67</v>
+        <v>134.03</v>
       </c>
       <c r="I191">
-        <v>13.92</v>
+        <v>13.7</v>
       </c>
       <c r="J191" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K191">
-        <v>5.3</v>
+        <v>4.89</v>
       </c>
       <c r="L191">
-        <v>113.17</v>
+        <v>115.39</v>
       </c>
       <c r="M191">
-        <v>21.06</v>
+        <v>12.99</v>
       </c>
       <c r="N191" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O191">
-        <v>6.33</v>
+        <v>5.14</v>
       </c>
       <c r="P191">
-        <v>135.46</v>
+        <v>129.77</v>
       </c>
       <c r="Q191">
-        <v>19.58</v>
+        <v>13.28</v>
       </c>
       <c r="R191" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S191">
-        <v>12.85</v>
+        <v>5.92</v>
       </c>
       <c r="T191">
-        <v>126.47</v>
+        <v>127.21</v>
       </c>
       <c r="U191">
-        <v>26.76</v>
+        <v>13.74</v>
       </c>
       <c r="V191" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -10560,28 +10580,28 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="I192">
-        <v>13.07601941747573</v>
+        <v>12.76757281553398</v>
       </c>
       <c r="J192" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M192">
-        <v>17.93541176470588</v>
+        <v>11.982</v>
       </c>
       <c r="N192" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q192">
-        <v>17.20188235294118</v>
+        <v>12.12488372093023</v>
       </c>
       <c r="R192" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="U192">
-        <v>23.73952380952381</v>
+        <v>12.38761904761905</v>
       </c>
       <c r="V192" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -10618,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="N193" t="s">
         <v>122</v>
@@ -10630,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="R193" t="s">
         <v>122</v>
@@ -10642,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="U193">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="V193" t="s">
         <v>122</v>
@@ -10668,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>-0.2</v>
+        <v>-0.24</v>
       </c>
       <c r="J194" t="s">
         <v>122</v>
@@ -10680,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>-0.03</v>
+        <v>-0.23</v>
       </c>
       <c r="N194" t="s">
         <v>122</v>
@@ -10692,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>-0.05</v>
+        <v>-0.23</v>
       </c>
       <c r="R194" t="s">
         <v>122</v>
@@ -10704,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="U194">
-        <v>-0.02</v>
+        <v>-0.3</v>
       </c>
       <c r="V194" t="s">
         <v>122</v>
@@ -10720,25 +10740,25 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="I195">
-        <v>0.8334875444839859</v>
+        <v>0.8307589285714286</v>
       </c>
       <c r="J195" t="s">
         <v>122</v>
       </c>
       <c r="M195">
-        <v>0.8692941176470588</v>
+        <v>0.7893258426966293</v>
       </c>
       <c r="N195" t="s">
         <v>122</v>
       </c>
       <c r="Q195">
-        <v>0.844410480349345</v>
+        <v>0.780625</v>
       </c>
       <c r="R195" t="s">
         <v>122</v>
       </c>
       <c r="U195">
-        <v>0.8496551724137931</v>
+        <v>0.744</v>
       </c>
       <c r="V195" t="s">
         <v>122</v>
@@ -10754,28 +10774,28 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="I196">
-        <v>21.92210772833724</v>
+        <v>23.17050314465409</v>
       </c>
       <c r="J196" t="s">
         <v>123</v>
       </c>
       <c r="M196">
-        <v>28.01107894736842</v>
+        <v>25.07594414893617</v>
       </c>
       <c r="N196" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q196">
-        <v>27.44969816272966</v>
+        <v>25.47274215552524</v>
       </c>
       <c r="R196" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="U196">
-        <v>28.95624338624339</v>
+        <v>25.40224043715847</v>
       </c>
       <c r="V196" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
